--- a/Data/result network Norway_REB.xlsx
+++ b/Data/result network Norway_REB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1393405D-721F-DC42-AD32-39E92F6D98D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA362A4C-5878-1A46-8CCA-74FF3B8EDE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="511">
   <si>
     <t>pipName</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>30" Gas STATFJORD B, STAT-SSTC</t>
-  </si>
-  <si>
-    <t>Statpipie</t>
   </si>
   <si>
     <t>STATFJORD B</t>
@@ -1578,6 +1575,9 @@
   </si>
   <si>
     <t>Tijdelijke node voor visualisatie.</t>
+  </si>
+  <si>
+    <t>Added Emden 2</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1692,6 +1692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,7 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1817,6 +1823,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2127,11 +2134,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA16" sqref="Z16:AA16"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2245,13 +2252,13 @@
         <v>25</v>
       </c>
       <c r="AB1" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="AC1" s="20" t="s">
-        <v>424</v>
-      </c>
       <c r="AD1" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2259,7 +2266,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>325524</v>
@@ -2268,22 +2275,22 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" t="s">
-        <v>179</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
       <c r="H2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>180</v>
-      </c>
-      <c r="I2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>181</v>
       </c>
       <c r="K2" t="s">
         <v>34</v>
@@ -2313,13 +2320,13 @@
         <v>36</v>
       </c>
       <c r="T2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2" t="s">
         <v>182</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>183</v>
-      </c>
-      <c r="V2" t="s">
-        <v>184</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="10">
@@ -2348,31 +2355,31 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3">
         <v>326068</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
         <v>186</v>
       </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
       <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>189</v>
-      </c>
-      <c r="J3" t="s">
-        <v>190</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -2402,13 +2409,13 @@
         <v>36</v>
       </c>
       <c r="T3" t="s">
+        <v>190</v>
+      </c>
+      <c r="U3" t="s">
         <v>191</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>192</v>
-      </c>
-      <c r="V3" t="s">
-        <v>193</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -2530,13 +2537,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>326340</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -2548,13 +2555,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -2584,13 +2591,13 @@
         <v>36</v>
       </c>
       <c r="T5" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" t="s">
         <v>198</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>199</v>
-      </c>
-      <c r="V5" t="s">
-        <v>200</v>
       </c>
       <c r="W5">
         <v>46</v>
@@ -2616,7 +2623,7 @@
         <v>DE_EP</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -2624,13 +2631,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6">
         <v>327394</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -2642,13 +2649,13 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
@@ -2678,13 +2685,13 @@
         <v>36</v>
       </c>
       <c r="T6" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" t="s">
         <v>219</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>220</v>
-      </c>
-      <c r="V6" t="s">
-        <v>221</v>
       </c>
       <c r="W6">
         <v>46</v>
@@ -2710,7 +2717,7 @@
         <v>DE947</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -2718,13 +2725,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>323212</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -2736,13 +2743,13 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
         <v>34</v>
@@ -2772,13 +2779,13 @@
         <v>36</v>
       </c>
       <c r="T7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" t="s">
         <v>170</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>171</v>
-      </c>
-      <c r="V7" t="s">
-        <v>172</v>
       </c>
       <c r="W7">
         <v>71</v>
@@ -2804,7 +2811,7 @@
         <v>DE947</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -2812,13 +2819,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>326374</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -2830,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
         <v>203</v>
-      </c>
-      <c r="I8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" t="s">
-        <v>204</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -2866,13 +2873,13 @@
         <v>36</v>
       </c>
       <c r="T8" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" t="s">
         <v>205</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>206</v>
-      </c>
-      <c r="V8" t="s">
-        <v>207</v>
       </c>
       <c r="W8">
         <v>55</v>
@@ -2903,13 +2910,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>357492</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -2921,10 +2928,10 @@
         <v>30</v>
       </c>
       <c r="H9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" t="s">
         <v>224</v>
-      </c>
-      <c r="I9" t="s">
-        <v>225</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
@@ -2957,13 +2964,13 @@
         <v>36</v>
       </c>
       <c r="T9" t="s">
+        <v>225</v>
+      </c>
+      <c r="U9" t="s">
         <v>226</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>227</v>
-      </c>
-      <c r="V9" t="s">
-        <v>228</v>
       </c>
       <c r="W9">
         <v>27</v>
@@ -2994,13 +3001,13 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10">
         <v>369461</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -3012,13 +3019,13 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
         <v>231</v>
       </c>
-      <c r="I10" t="s">
-        <v>232</v>
-      </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
         <v>34</v>
@@ -3048,13 +3055,13 @@
         <v>36</v>
       </c>
       <c r="T10" t="s">
+        <v>232</v>
+      </c>
+      <c r="U10" t="s">
         <v>233</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>234</v>
-      </c>
-      <c r="V10" t="s">
-        <v>235</v>
       </c>
       <c r="W10">
         <v>75</v>
@@ -3085,13 +3092,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="5">
         <v>369498</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>28</v>
@@ -3103,13 +3110,13 @@
         <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>34</v>
@@ -3121,7 +3128,7 @@
         <v>83</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O11" s="5">
         <v>2252643</v>
@@ -3136,16 +3143,16 @@
         <v>1944954</v>
       </c>
       <c r="S11" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="V11" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="W11" s="5">
         <v>72</v>
@@ -3176,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>319132</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -3194,13 +3201,13 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
         <v>78</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -3230,13 +3237,13 @@
         <v>36</v>
       </c>
       <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
         <v>81</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>82</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
       </c>
       <c r="W12">
         <v>7</v>
@@ -3267,13 +3274,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13">
         <v>326918</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -3285,13 +3292,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>214</v>
       </c>
       <c r="K13" t="s">
         <v>34</v>
@@ -3321,13 +3328,13 @@
         <v>36</v>
       </c>
       <c r="T13" t="s">
+        <v>214</v>
+      </c>
+      <c r="U13" t="s">
         <v>215</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>216</v>
-      </c>
-      <c r="V13" t="s">
-        <v>217</v>
       </c>
       <c r="W13">
         <v>32</v>
@@ -3353,7 +3360,7 @@
         <v>NO_EV</v>
       </c>
       <c r="AD13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -3361,13 +3368,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>319166</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -3379,13 +3386,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" t="s">
         <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>88</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -3415,13 +3422,13 @@
         <v>36</v>
       </c>
       <c r="T14" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" t="s">
         <v>89</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>90</v>
-      </c>
-      <c r="V14" t="s">
-        <v>91</v>
       </c>
       <c r="W14">
         <v>32</v>
@@ -3447,7 +3454,7 @@
         <v>NOB11</v>
       </c>
       <c r="AD14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3455,13 +3462,13 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>324844</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -3473,13 +3480,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -3509,13 +3516,13 @@
         <v>36</v>
       </c>
       <c r="T15" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15" t="s">
         <v>174</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>175</v>
-      </c>
-      <c r="V15" t="s">
-        <v>176</v>
       </c>
       <c r="W15">
         <v>32</v>
@@ -3541,7 +3548,7 @@
         <v>DE_H7</v>
       </c>
       <c r="AD15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3549,13 +3556,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16">
         <v>321784</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -3567,13 +3574,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
         <v>112</v>
-      </c>
-      <c r="J16" t="s">
-        <v>113</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -3603,13 +3610,13 @@
         <v>36</v>
       </c>
       <c r="T16" t="s">
+        <v>113</v>
+      </c>
+      <c r="U16" t="s">
         <v>114</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>115</v>
-      </c>
-      <c r="V16" t="s">
-        <v>116</v>
       </c>
       <c r="W16">
         <v>32</v>
@@ -3641,13 +3648,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>319676</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -3659,13 +3666,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>96</v>
       </c>
       <c r="K17" t="s">
         <v>34</v>
@@ -3695,13 +3702,13 @@
         <v>36</v>
       </c>
       <c r="T17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" t="s">
         <v>97</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>98</v>
-      </c>
-      <c r="V17" t="s">
-        <v>99</v>
       </c>
       <c r="W17">
         <v>35</v>
@@ -3752,10 +3759,10 @@
       <c r="H18" t="s">
         <v>50</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="37" t="s">
         <v>33</v>
       </c>
       <c r="K18" t="s">
@@ -3823,7 +3830,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>322464</v>
@@ -3831,7 +3838,7 @@
       <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
@@ -3841,13 +3848,13 @@
         <v>30</v>
       </c>
       <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>107</v>
+      <c r="J19" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -3877,13 +3884,13 @@
         <v>36</v>
       </c>
       <c r="T19" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" t="s">
         <v>135</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>136</v>
-      </c>
-      <c r="V19" t="s">
-        <v>137</v>
       </c>
       <c r="W19">
         <v>10</v>
@@ -3914,7 +3921,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>323042</v>
@@ -3922,7 +3929,7 @@
       <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
@@ -3932,13 +3939,13 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J20" t="s">
-        <v>107</v>
+      <c r="J20" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -3968,13 +3975,13 @@
         <v>36</v>
       </c>
       <c r="T20" t="s">
+        <v>152</v>
+      </c>
+      <c r="U20" t="s">
         <v>153</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>154</v>
-      </c>
-      <c r="V20" t="s">
-        <v>155</v>
       </c>
       <c r="W20">
         <v>21</v>
@@ -4005,7 +4012,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>326408</v>
@@ -4023,13 +4030,13 @@
         <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="K21" t="s">
         <v>34</v>
@@ -4059,13 +4066,13 @@
         <v>36</v>
       </c>
       <c r="T21" t="s">
+        <v>208</v>
+      </c>
+      <c r="U21" t="s">
         <v>209</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>210</v>
-      </c>
-      <c r="V21" t="s">
-        <v>211</v>
       </c>
       <c r="W21">
         <v>30</v>
@@ -4091,7 +4098,7 @@
         <v>NO_EV</v>
       </c>
       <c r="AD21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -4105,7 +4112,7 @@
         <v>318010</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -4119,10 +4126,10 @@
       <c r="H22" t="s">
         <v>50</v>
       </c>
-      <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="37" t="s">
         <v>51</v>
       </c>
       <c r="K22" t="s">
@@ -4153,13 +4160,13 @@
         <v>36</v>
       </c>
       <c r="T22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s">
         <v>73</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>74</v>
-      </c>
-      <c r="V22" t="s">
-        <v>75</v>
       </c>
       <c r="W22">
         <v>25</v>
@@ -4190,13 +4197,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23">
         <v>377106</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -4208,13 +4215,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
         <v>261</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" t="s">
-        <v>262</v>
       </c>
       <c r="K23" t="s">
         <v>34</v>
@@ -4244,13 +4251,13 @@
         <v>36</v>
       </c>
       <c r="T23" t="s">
+        <v>262</v>
+      </c>
+      <c r="U23" t="s">
         <v>263</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>264</v>
-      </c>
-      <c r="V23" t="s">
-        <v>265</v>
       </c>
       <c r="W23">
         <v>13.5</v>
@@ -4281,13 +4288,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24">
         <v>322532</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -4299,13 +4306,13 @@
         <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
@@ -4335,13 +4342,13 @@
         <v>36</v>
       </c>
       <c r="T24" t="s">
+        <v>148</v>
+      </c>
+      <c r="U24" t="s">
         <v>149</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>150</v>
-      </c>
-      <c r="V24" t="s">
-        <v>151</v>
       </c>
       <c r="W24">
         <v>39</v>
@@ -4372,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>321002</v>
@@ -4393,7 +4400,7 @@
         <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
@@ -4426,13 +4433,13 @@
         <v>36</v>
       </c>
       <c r="T25" t="s">
+        <v>101</v>
+      </c>
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>103</v>
-      </c>
-      <c r="V25" t="s">
-        <v>104</v>
       </c>
       <c r="W25">
         <v>55</v>
@@ -4555,13 +4562,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>323076</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -4579,7 +4586,7 @@
         <v>61</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
         <v>34</v>
@@ -4609,13 +4616,13 @@
         <v>36</v>
       </c>
       <c r="T27" t="s">
+        <v>157</v>
+      </c>
+      <c r="U27" t="s">
         <v>158</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>159</v>
-      </c>
-      <c r="V27" t="s">
-        <v>160</v>
       </c>
       <c r="W27">
         <v>74</v>
@@ -4646,13 +4653,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28">
         <v>323110</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -4670,7 +4677,7 @@
         <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s">
         <v>34</v>
@@ -4700,13 +4707,13 @@
         <v>36</v>
       </c>
       <c r="T28" t="s">
+        <v>163</v>
+      </c>
+      <c r="U28" t="s">
         <v>164</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>165</v>
-      </c>
-      <c r="V28" t="s">
-        <v>166</v>
       </c>
       <c r="W28">
         <v>73</v>
@@ -4737,16 +4744,16 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29">
         <v>406790</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
         <v>277</v>
-      </c>
-      <c r="E29" t="s">
-        <v>278</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -4755,13 +4762,13 @@
         <v>30</v>
       </c>
       <c r="H29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" t="s">
         <v>279</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>280</v>
-      </c>
-      <c r="J29" t="s">
-        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -4791,13 +4798,13 @@
         <v>36</v>
       </c>
       <c r="T29" t="s">
+        <v>281</v>
+      </c>
+      <c r="U29" t="s">
         <v>282</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>283</v>
-      </c>
-      <c r="V29" t="s">
-        <v>284</v>
       </c>
       <c r="W29">
         <v>17</v>
@@ -4828,16 +4835,16 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30">
         <v>322498</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
         <v>139</v>
-      </c>
-      <c r="E30" t="s">
-        <v>140</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -4846,13 +4853,13 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
         <v>141</v>
-      </c>
-      <c r="I30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" t="s">
-        <v>142</v>
       </c>
       <c r="K30" t="s">
         <v>34</v>
@@ -4882,13 +4889,13 @@
         <v>36</v>
       </c>
       <c r="T30" t="s">
+        <v>142</v>
+      </c>
+      <c r="U30" t="s">
         <v>143</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>144</v>
-      </c>
-      <c r="V30" t="s">
-        <v>145</v>
       </c>
       <c r="W30">
         <v>10</v>
@@ -4919,16 +4926,16 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C31">
         <v>425280</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" t="s">
         <v>291</v>
-      </c>
-      <c r="E31" t="s">
-        <v>292</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -4937,13 +4944,13 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
+        <v>292</v>
+      </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" t="s">
         <v>293</v>
-      </c>
-      <c r="I31" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" t="s">
-        <v>294</v>
       </c>
       <c r="K31" t="s">
         <v>34</v>
@@ -4973,13 +4980,13 @@
         <v>36</v>
       </c>
       <c r="T31" t="s">
+        <v>294</v>
+      </c>
+      <c r="U31" t="s">
         <v>295</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>296</v>
-      </c>
-      <c r="V31" t="s">
-        <v>297</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="10">
@@ -5008,16 +5015,16 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>321818</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>29</v>
@@ -5026,13 +5033,13 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" t="s">
         <v>120</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>121</v>
-      </c>
-      <c r="J32" t="s">
-        <v>122</v>
       </c>
       <c r="K32" t="s">
         <v>34</v>
@@ -5062,13 +5069,13 @@
         <v>36</v>
       </c>
       <c r="T32" t="s">
+        <v>122</v>
+      </c>
+      <c r="U32" t="s">
         <v>123</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>124</v>
-      </c>
-      <c r="V32" t="s">
-        <v>125</v>
       </c>
       <c r="W32">
         <v>5</v>
@@ -5099,16 +5106,16 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33">
         <v>321852</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
         <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -5117,13 +5124,13 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
         <v>34</v>
@@ -5153,13 +5160,13 @@
         <v>36</v>
       </c>
       <c r="T33" t="s">
+        <v>128</v>
+      </c>
+      <c r="U33" t="s">
         <v>129</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>130</v>
-      </c>
-      <c r="V33" t="s">
-        <v>131</v>
       </c>
       <c r="W33">
         <v>11</v>
@@ -5190,16 +5197,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34">
         <v>456695</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" t="s">
         <v>325</v>
-      </c>
-      <c r="E34" t="s">
-        <v>326</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -5208,13 +5215,13 @@
         <v>30</v>
       </c>
       <c r="H34" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34" t="s">
         <v>327</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>328</v>
-      </c>
-      <c r="J34" t="s">
-        <v>329</v>
       </c>
       <c r="K34" t="s">
         <v>34</v>
@@ -5244,13 +5251,13 @@
         <v>36</v>
       </c>
       <c r="T34" t="s">
+        <v>329</v>
+      </c>
+      <c r="U34" t="s">
         <v>330</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>331</v>
-      </c>
-      <c r="V34" t="s">
-        <v>332</v>
       </c>
       <c r="W34">
         <v>5</v>
@@ -5281,16 +5288,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35">
         <v>438653</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" t="s">
         <v>299</v>
-      </c>
-      <c r="E35" t="s">
-        <v>300</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -5299,13 +5306,13 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" t="s">
         <v>301</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>302</v>
-      </c>
-      <c r="J35" t="s">
-        <v>303</v>
       </c>
       <c r="K35" t="s">
         <v>34</v>
@@ -5335,13 +5342,13 @@
         <v>36</v>
       </c>
       <c r="T35" t="s">
+        <v>303</v>
+      </c>
+      <c r="U35" t="s">
         <v>304</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>305</v>
-      </c>
-      <c r="V35" t="s">
-        <v>306</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="10">
@@ -5365,7 +5372,7 @@
         <v>NO_?</v>
       </c>
       <c r="AD35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -5373,31 +5380,31 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36">
         <v>371254</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" t="s">
         <v>246</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>248</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
       </c>
       <c r="H36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
         <v>231</v>
-      </c>
-      <c r="I36" t="s">
-        <v>249</v>
-      </c>
-      <c r="J36" t="s">
-        <v>232</v>
       </c>
       <c r="K36" t="s">
         <v>34</v>
@@ -5427,13 +5434,13 @@
         <v>36</v>
       </c>
       <c r="T36" t="s">
+        <v>249</v>
+      </c>
+      <c r="U36" t="s">
         <v>250</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>251</v>
-      </c>
-      <c r="V36" t="s">
-        <v>252</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="10">
@@ -5462,31 +5469,31 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37">
         <v>371292</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" t="s">
         <v>247</v>
-      </c>
-      <c r="F37" t="s">
-        <v>248</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
       </c>
       <c r="H37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
         <v>231</v>
-      </c>
-      <c r="I37" t="s">
-        <v>255</v>
-      </c>
-      <c r="J37" t="s">
-        <v>232</v>
       </c>
       <c r="K37" t="s">
         <v>34</v>
@@ -5516,13 +5523,13 @@
         <v>36</v>
       </c>
       <c r="T37" t="s">
+        <v>255</v>
+      </c>
+      <c r="U37" t="s">
         <v>256</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>257</v>
-      </c>
-      <c r="V37" t="s">
-        <v>258</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="10">
@@ -5551,16 +5558,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38">
         <v>444927</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
         <v>317</v>
-      </c>
-      <c r="E38" t="s">
-        <v>318</v>
       </c>
       <c r="F38" t="s">
         <v>29</v>
@@ -5569,13 +5576,13 @@
         <v>30</v>
       </c>
       <c r="H38" t="s">
+        <v>318</v>
+      </c>
+      <c r="I38" t="s">
         <v>319</v>
       </c>
-      <c r="I38" t="s">
-        <v>320</v>
-      </c>
       <c r="J38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s">
         <v>34</v>
@@ -5605,13 +5612,13 @@
         <v>36</v>
       </c>
       <c r="T38" t="s">
+        <v>320</v>
+      </c>
+      <c r="U38" t="s">
         <v>321</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>322</v>
-      </c>
-      <c r="V38" t="s">
-        <v>323</v>
       </c>
       <c r="W38">
         <v>70</v>
@@ -5642,31 +5649,31 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39">
         <v>406393</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" t="s">
         <v>267</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>268</v>
-      </c>
-      <c r="F39" t="s">
-        <v>269</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
       </c>
       <c r="H39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" t="s">
         <v>270</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>271</v>
-      </c>
-      <c r="J39" t="s">
-        <v>272</v>
       </c>
       <c r="K39" t="s">
         <v>34</v>
@@ -5696,13 +5703,13 @@
         <v>36</v>
       </c>
       <c r="T39" t="s">
+        <v>272</v>
+      </c>
+      <c r="U39" t="s">
         <v>273</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>274</v>
-      </c>
-      <c r="V39" t="s">
-        <v>275</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="10">
@@ -5731,16 +5738,16 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40">
         <v>370369</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" t="s">
         <v>237</v>
-      </c>
-      <c r="E40" t="s">
-        <v>238</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -5749,13 +5756,13 @@
         <v>30</v>
       </c>
       <c r="H40" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" t="s">
         <v>239</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>240</v>
-      </c>
-      <c r="J40" t="s">
-        <v>241</v>
       </c>
       <c r="K40" t="s">
         <v>34</v>
@@ -5785,13 +5792,13 @@
         <v>36</v>
       </c>
       <c r="T40" t="s">
+        <v>241</v>
+      </c>
+      <c r="U40" t="s">
         <v>242</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>243</v>
-      </c>
-      <c r="V40" t="s">
-        <v>244</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="10">
@@ -6004,7 +6011,7 @@
         <v>414837</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" t="s">
         <v>57</v>
@@ -6016,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I43" t="s">
         <v>60</v>
@@ -6052,13 +6059,13 @@
         <v>36</v>
       </c>
       <c r="T43" t="s">
+        <v>286</v>
+      </c>
+      <c r="U43" t="s">
         <v>287</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>288</v>
-      </c>
-      <c r="V43" t="s">
-        <v>289</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="10">
@@ -6087,16 +6094,16 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44">
         <v>442969</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" t="s">
         <v>308</v>
-      </c>
-      <c r="E44" t="s">
-        <v>309</v>
       </c>
       <c r="F44" t="s">
         <v>29</v>
@@ -6105,13 +6112,13 @@
         <v>30</v>
       </c>
       <c r="H44" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" t="s">
         <v>310</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>311</v>
-      </c>
-      <c r="J44" t="s">
-        <v>312</v>
       </c>
       <c r="K44" t="s">
         <v>34</v>
@@ -6141,13 +6148,13 @@
         <v>36</v>
       </c>
       <c r="T44" t="s">
+        <v>312</v>
+      </c>
+      <c r="U44" t="s">
         <v>313</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>314</v>
-      </c>
-      <c r="V44" t="s">
-        <v>315</v>
       </c>
       <c r="W44">
         <v>5</v>
@@ -6178,7 +6185,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>321036</v>
@@ -6187,7 +6194,7 @@
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
         <v>29</v>
@@ -6199,10 +6206,10 @@
         <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s">
         <v>34</v>
@@ -6232,13 +6239,13 @@
         <v>36</v>
       </c>
       <c r="T45" t="s">
+        <v>107</v>
+      </c>
+      <c r="U45" t="s">
         <v>108</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>109</v>
-      </c>
-      <c r="V45" t="s">
-        <v>110</v>
       </c>
       <c r="W45">
         <v>55</v>
@@ -6270,22 +6277,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X46" s="11">
         <v>6.5038</v>
@@ -6313,22 +6320,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X47" s="11">
         <v>9.3108000000000004</v>
@@ -6357,22 +6364,22 @@
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>334</v>
-      </c>
       <c r="V48" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="W48" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="X48" s="11">
         <v>11.2102</v>
@@ -6400,22 +6407,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="V49" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="W49" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="X49" s="11">
         <v>-1.104584</v>
@@ -6443,22 +6450,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="V50" s="5" t="s">
+      <c r="W50" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="X50" s="11">
         <v>-1.8256509999999999</v>
@@ -6481,29 +6488,29 @@
         <v>UKM50</v>
       </c>
       <c r="AD50" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="I52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6523,7 +6530,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C77" sqref="C77:D77"/>
@@ -6543,13 +6550,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -6558,19 +6565,19 @@
         <v>21</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6578,7 +6585,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C2" s="13">
         <v>23.58734798579594</v>
@@ -6587,7 +6594,7 @@
         <v>70.685443717529964</v>
       </c>
       <c r="E2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F2">
         <v>119.05</v>
@@ -6597,17 +6604,17 @@
         <v>1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I2" s="29">
         <f t="shared" ref="I2:I33" si="0">IF(G2=1,F2,0)</f>
         <v>119.05</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6615,7 +6622,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13">
         <v>21.226541519000019</v>
@@ -6624,7 +6631,7 @@
         <v>71.571334839000031</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3">
         <v>8889.5949999999993</v>
@@ -6639,10 +6646,10 @@
         <v>8889.5949999999993</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6650,7 +6657,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="13">
         <v>7.1072270000000231</v>
@@ -6659,7 +6666,7 @@
         <v>67.055610000000058</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F4">
         <v>8889.5949999999993</v>
@@ -6674,7 +6681,7 @@
         <v>8889.5949999999993</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6682,7 +6689,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13">
         <v>8.0785441179034034</v>
@@ -6691,7 +6698,7 @@
         <v>66.029330899408933</v>
       </c>
       <c r="E5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5">
         <v>1041.0509999999999</v>
@@ -6701,14 +6708,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="0"/>
         <v>1041.0509999999999</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6716,7 +6723,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="13">
         <v>7.6558328198016818</v>
@@ -6725,7 +6732,7 @@
         <v>65.693743899121472</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6">
         <v>48.064999999999998</v>
@@ -6735,14 +6742,14 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6750,7 +6757,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="13">
         <v>7.3202454238671333</v>
@@ -6759,7 +6766,7 @@
         <v>65.321499578632455</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F7">
         <v>1214.5999999999999</v>
@@ -6774,7 +6781,7 @@
         <v>1214.5999999999999</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6782,7 +6789,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="13">
         <v>6.8036598360000653</v>
@@ -6791,7 +6798,7 @@
         <v>65.094471500000054</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
@@ -6804,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6812,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="13">
         <v>6.8014610000000744</v>
@@ -6821,7 +6828,7 @@
         <v>65.084516000000065</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9">
         <v>1214.5999999999999</v>
@@ -6836,7 +6843,7 @@
         <v>1214.5999999999999</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6844,7 +6851,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="13">
         <v>7.7910261052919596</v>
@@ -6853,7 +6860,7 @@
         <v>64.350567591210293</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10">
         <v>48.064999999999998</v>
@@ -6868,7 +6875,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6876,7 +6883,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="13">
         <v>6.4412580000000617</v>
@@ -6885,7 +6892,7 @@
         <v>64.233255000000042</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F11">
         <v>48.064999999999998</v>
@@ -6900,7 +6907,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6908,7 +6915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="13">
         <v>5.3867635720000644</v>
@@ -6917,7 +6924,7 @@
         <v>63.528081670000063</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F12">
         <v>48.064999999999998</v>
@@ -6932,7 +6939,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6940,7 +6947,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="13">
         <v>5.3865159610000433</v>
@@ -6949,7 +6956,7 @@
         <v>63.528076290000058</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -6964,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6972,7 +6979,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13">
         <v>8.6582155394689266</v>
@@ -6981,7 +6988,7 @@
         <v>63.398890962560763</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -6996,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -7007,7 +7014,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="13">
         <v>6.9457712170000718</v>
@@ -7016,7 +7023,7 @@
         <v>62.851558685000043</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F15">
         <v>3093.8470000000002</v>
@@ -7031,10 +7038,10 @@
         <v>3093.8470000000002</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -7042,7 +7049,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13">
         <v>6.9457712170000718</v>
@@ -7051,7 +7058,7 @@
         <v>62.851558685000043</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F16">
         <v>3093.8470000000002</v>
@@ -7080,7 +7087,7 @@
         <v>62.302728638549418</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="17">
@@ -7088,17 +7095,17 @@
         <v>1</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I17" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -7106,7 +7113,7 @@
         <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="13">
         <v>3.9049897926673558</v>
@@ -7115,7 +7122,7 @@
         <v>61.330193776287437</v>
       </c>
       <c r="E18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F18">
         <v>2588.0810000000001</v>
@@ -7130,7 +7137,7 @@
         <v>2588.0810000000001</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -7138,7 +7145,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="13">
         <v>1.8315257775840801</v>
@@ -7147,7 +7154,7 @@
         <v>61.20244504760155</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -7162,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -7179,7 +7186,7 @@
         <v>61.185830000000067</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="17">
@@ -7192,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -7209,7 +7216,7 @@
         <v>61.185830000000067</v>
       </c>
       <c r="E21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="18">
@@ -7222,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -7230,7 +7237,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="13">
         <v>2.5070780834093052</v>
@@ -7239,7 +7246,7 @@
         <v>61.077581935633752</v>
       </c>
       <c r="E22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F22">
         <v>508.40300000000002</v>
@@ -7254,7 +7261,7 @@
         <v>508.40300000000002</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -7262,7 +7269,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C23" s="13">
         <v>1.7050129999999999</v>
@@ -7271,7 +7278,7 @@
         <v>61.034477000000003</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F23">
         <v>68.573999999999998</v>
@@ -7286,10 +7293,10 @@
         <v>68.573999999999998</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -7297,7 +7304,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="13">
         <v>1.700189114000068</v>
@@ -7306,7 +7313,7 @@
         <v>61.022018433000028</v>
       </c>
       <c r="E24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="17">
@@ -7319,10 +7326,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -7330,7 +7337,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" s="13">
         <v>1.6999852660000561</v>
@@ -7339,7 +7346,7 @@
         <v>61.020797730000027</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25">
         <v>2588.0810000000001</v>
@@ -7354,7 +7361,7 @@
         <v>2588.0810000000001</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -7362,7 +7369,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="13">
         <v>2.8980550000000558</v>
@@ -7371,7 +7378,7 @@
         <v>60.560633000000053</v>
       </c>
       <c r="E26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -7386,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -7403,7 +7410,7 @@
         <v>60.550175000000081</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F27">
         <v>2628.125</v>
@@ -7418,7 +7425,7 @@
         <v>2628.125</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -7435,7 +7442,7 @@
         <v>60.545348486364603</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -7450,10 +7457,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -7470,7 +7477,7 @@
         <v>60.545348486364603</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -7485,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -7493,7 +7500,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="13">
         <v>3.037825494927695</v>
@@ -7502,7 +7509,7 @@
         <v>60.543328997897447</v>
       </c>
       <c r="E30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F30">
         <v>48.064999999999998</v>
@@ -7517,7 +7524,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -7525,7 +7532,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="13">
         <v>2.011387666028313</v>
@@ -7534,7 +7541,7 @@
         <v>60.502035307044537</v>
       </c>
       <c r="E31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="17">
@@ -7547,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7558,7 +7565,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="13">
         <v>2.8240461869792348</v>
@@ -7567,7 +7574,7 @@
         <v>60.486900453608072</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F32">
         <v>48.064999999999998</v>
@@ -7582,7 +7589,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -7590,7 +7597,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="13">
         <v>2.0175154810000322</v>
@@ -7599,7 +7606,7 @@
         <v>59.894961973000079</v>
       </c>
       <c r="E33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F33">
         <v>48.064999999999998</v>
@@ -7614,7 +7621,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -7622,7 +7629,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="13">
         <v>2.2352254874930928</v>
@@ -7631,7 +7638,7 @@
         <v>59.571075351213203</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F34">
         <v>1329.308</v>
@@ -7646,7 +7653,7 @@
         <v>1329.308</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -7654,7 +7661,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="13">
         <v>2.2352254874930928</v>
@@ -7663,7 +7670,7 @@
         <v>59.571075351213203</v>
       </c>
       <c r="E35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F35">
         <v>1329.308</v>
@@ -7683,7 +7690,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="13">
         <v>2.2345225779689399</v>
@@ -7692,7 +7699,7 @@
         <v>59.570737872744949</v>
       </c>
       <c r="E36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F36">
         <v>1329.308</v>
@@ -7707,7 +7714,7 @@
         <v>1329.308</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -7715,7 +7722,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C37" s="13">
         <v>1.3911370790000319</v>
@@ -7724,7 +7731,7 @@
         <v>59.47797846900005</v>
       </c>
       <c r="E37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F37">
         <v>48.064999999999998</v>
@@ -7739,7 +7746,7 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -7756,7 +7763,7 @@
         <v>59.272115627836378</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="17">
@@ -7769,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -7789,7 +7796,7 @@
         <v>59.272115627836378</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="18">
@@ -7802,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -7810,7 +7817,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="13">
         <v>5.0541760000000409</v>
@@ -7819,7 +7826,7 @@
         <v>59.326808000000028</v>
       </c>
       <c r="E40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40">
         <v>8889.5949999999993</v>
@@ -7834,7 +7841,7 @@
         <v>8889.5949999999993</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -7842,7 +7849,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="13">
         <v>2.487335300560932</v>
@@ -7851,7 +7858,7 @@
         <v>59.169726343631233</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F41">
         <v>48.064999999999998</v>
@@ -7866,10 +7873,10 @@
         <v>48.064999999999998</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -7877,7 +7884,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C42" s="13">
         <v>1.750470074427396</v>
@@ -7886,7 +7893,7 @@
         <v>58.84241056287069</v>
       </c>
       <c r="E42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F42">
         <v>667.00199999999995</v>
@@ -7901,7 +7908,7 @@
         <v>667.00199999999995</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -7909,7 +7916,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C43" s="13">
         <v>2.5577715130093028</v>
@@ -7918,7 +7925,7 @@
         <v>58.841931072335058</v>
       </c>
       <c r="E43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F43">
         <v>8889.5949999999993</v>
@@ -7933,10 +7940,10 @@
         <v>8889.5949999999993</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -7944,7 +7951,7 @@
         <v>65</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="13">
         <v>2.254149831737414</v>
@@ -7953,7 +7960,7 @@
         <v>58.839405675350093</v>
       </c>
       <c r="E44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="17">
@@ -7966,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -7974,7 +7981,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C45" s="27">
         <v>1.898765933579508</v>
@@ -7983,7 +7990,7 @@
         <v>58.370533807717997</v>
       </c>
       <c r="E45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F45">
         <v>291.70999999999998</v>
@@ -7998,10 +8005,10 @@
         <v>291.70999999999998</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -8009,7 +8016,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="27">
         <v>1.915866396996226</v>
@@ -8018,7 +8025,7 @@
         <v>58.364944173837479</v>
       </c>
       <c r="E46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F46">
         <v>1.974</v>
@@ -8033,10 +8040,10 @@
         <v>1.974</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -8044,7 +8051,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="13">
         <v>1.915866396996226</v>
@@ -8053,7 +8060,7 @@
         <v>58.364944173837479</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F47">
         <v>1.974</v>
@@ -8068,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -8076,7 +8083,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="13">
         <v>2.4644041660536331</v>
@@ -8085,7 +8092,7 @@
         <v>58.188149017412513</v>
       </c>
       <c r="E48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -8095,17 +8102,17 @@
         <v>1</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I48" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -8113,7 +8120,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="27">
         <v>2.4644041660536331</v>
@@ -8122,7 +8129,7 @@
         <v>58.188149017412513</v>
       </c>
       <c r="E49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -8142,7 +8149,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="27">
         <v>2.4737329746028802</v>
@@ -8151,7 +8158,7 @@
         <v>58.184409229014761</v>
       </c>
       <c r="E50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -8161,17 +8168,17 @@
         <v>1</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I50" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -8179,7 +8186,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="13">
         <v>2.4737329746028802</v>
@@ -8188,7 +8195,7 @@
         <v>58.184409229014761</v>
       </c>
       <c r="E51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -8208,7 +8215,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C52" s="13">
         <v>1.803328</v>
@@ -8217,7 +8224,7 @@
         <v>57.758068999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F52">
         <v>1282.3420000000001</v>
@@ -8227,14 +8234,14 @@
         <v>1</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I52" s="29">
         <f t="shared" si="1"/>
         <v>1282.3420000000001</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -8242,7 +8249,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="13">
         <v>-1.8256509999999999</v>
@@ -8251,7 +8258,7 @@
         <v>57.579971</v>
       </c>
       <c r="E53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="17">
@@ -8259,11 +8266,11 @@
         <v>1</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -8271,7 +8278,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="13">
         <v>-1.8256509999999999</v>
@@ -8280,7 +8287,7 @@
         <v>57.579971</v>
       </c>
       <c r="E54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="18">
@@ -8298,7 +8305,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="13">
         <v>3.330503000000022</v>
@@ -8307,7 +8314,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F55">
         <v>578.78499999999997</v>
@@ -8322,7 +8329,7 @@
         <v>578.78499999999997</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -8330,7 +8337,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="13">
         <v>3.330503000000022</v>
@@ -8339,7 +8346,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F56">
         <v>933.85500000000002</v>
@@ -8354,7 +8361,7 @@
         <v>933.85500000000002</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -8362,7 +8369,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="13">
         <v>3.330503000000022</v>
@@ -8371,7 +8378,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F57">
         <v>933.85500000000002</v>
@@ -8391,7 +8398,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C58" s="13">
         <v>6.5038</v>
@@ -8400,7 +8407,7 @@
         <v>55.71</v>
       </c>
       <c r="E58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8415,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -8423,7 +8430,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="13">
         <v>4.5569471181611378</v>
@@ -8432,7 +8439,7 @@
         <v>55.458982371638299</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="17">
@@ -8445,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -8453,7 +8460,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="13">
         <v>4.5569471181611378</v>
@@ -8462,7 +8469,7 @@
         <v>55.458982371638299</v>
       </c>
       <c r="E60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="18">
@@ -8475,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -8492,7 +8499,7 @@
         <v>54.789494000000047</v>
       </c>
       <c r="E61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="17">
@@ -8500,17 +8507,17 @@
         <v>1</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I61" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -8527,7 +8534,7 @@
         <v>54.789494000000047</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="18">
@@ -8540,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -8548,7 +8555,7 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" s="13">
         <v>-1.104584</v>
@@ -8557,7 +8564,7 @@
         <v>54.624600000000001</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F63">
         <v>222.233</v>
@@ -8572,7 +8579,7 @@
         <v>222.233</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -8580,7 +8587,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="13">
         <v>6.0406335538870612</v>
@@ -8589,7 +8596,7 @@
         <v>54.505801334185612</v>
       </c>
       <c r="E64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="17">
@@ -8602,10 +8609,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -8613,7 +8620,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="13">
         <v>6.0406335538870612</v>
@@ -8622,7 +8629,7 @@
         <v>54.505801334185612</v>
       </c>
       <c r="E65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="18">
@@ -8635,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -8643,7 +8650,7 @@
         <v>34</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C66" s="13">
         <v>15.2599</v>
@@ -8652,7 +8659,7 @@
         <v>53.8</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F66">
         <v>1041.0509999999999</v>
@@ -8667,10 +8674,10 @@
         <v>1041.0509999999999</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K66" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -8678,7 +8685,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="35">
         <v>4.2226220000000581</v>
@@ -8687,7 +8694,7 @@
         <v>55.706969000000072</v>
       </c>
       <c r="E67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -8697,17 +8704,17 @@
         <v>1</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I67" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -8715,7 +8722,7 @@
         <v>55</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" s="35">
         <v>4.2226220000000581</v>
@@ -8724,7 +8731,7 @@
         <v>55.706969000000072</v>
       </c>
       <c r="E68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -8739,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -8747,7 +8754,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C69" s="13">
         <v>0.1160310000000209</v>
@@ -8756,7 +8763,7 @@
         <v>53.659231000000027</v>
       </c>
       <c r="E69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -8766,11 +8773,11 @@
         <v>1</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -8778,7 +8785,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="24">
         <v>7.3264200000000406</v>
@@ -8787,7 +8794,7 @@
         <v>53.679700000000082</v>
       </c>
       <c r="E70" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="17">
@@ -8795,11 +8802,11 @@
         <v>1</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -8816,7 +8823,7 @@
         <v>51.350508000000048</v>
       </c>
       <c r="E71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F71">
         <v>48.064999999999998</v>
@@ -8826,14 +8833,14 @@
         <v>1</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I71" s="29">
         <f>IF(G71=1,F71,0)</f>
         <v>48.064999999999998</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -8841,7 +8848,7 @@
         <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="13">
         <v>2.252709000000038</v>
@@ -8850,7 +8857,7 @@
         <v>51.046406000000047</v>
       </c>
       <c r="E72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F72">
         <v>1214.5999999999999</v>
@@ -8860,22 +8867,22 @@
         <v>1</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I72" s="29">
         <f>IF(G72=1,F72,0)</f>
         <v>1214.5999999999999</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C73" s="11">
         <v>8.4072999999999993</v>
@@ -8884,18 +8891,18 @@
         <v>55.744999999999997</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C74" s="11">
         <v>9.3108000000000004</v>
@@ -8904,18 +8911,18 @@
         <v>55.616999999999997</v>
       </c>
       <c r="J74" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
         <v>496</v>
-      </c>
-      <c r="K74" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" s="11">
         <v>10.7951</v>
@@ -8924,18 +8931,18 @@
         <v>55.286999999999999</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K75" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C76" s="11">
         <v>11.2102</v>
@@ -8944,15 +8951,15 @@
         <v>55.389000000000003</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C77" s="10">
         <v>7.1892900000000282</v>
@@ -8961,7 +8968,7 @@
         <v>53.346200000000067</v>
       </c>
       <c r="K77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -8982,7 +8989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C0B328-B3D4-FB47-A4F2-E4F4A7B34504}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -8992,22 +8999,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Data/result network Norway_REB.xlsx
+++ b/Data/result network Norway_REB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA362A4C-5878-1A46-8CCA-74FF3B8EDE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5B9DA-8F15-D14B-B4BF-BD407A57745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipes" sheetId="1" r:id="rId1"/>
     <sheet name="facilities" sheetId="2" r:id="rId2"/>
     <sheet name="Changes Berend" sheetId="3" r:id="rId3"/>
+    <sheet name="NewRuud" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">facilities!$A$1:$K$72</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="523">
   <si>
     <t>pipName</t>
   </si>
@@ -46,9 +47,6 @@
     <t>idPipeline</t>
   </si>
   <si>
-    <t>mapLabel</t>
-  </si>
-  <si>
     <t>belongs_to</t>
   </si>
   <si>
@@ -1108,9 +1106,6 @@
     <t>LINESTRING (1.899695221113172 58.36436527043758, 1.8784147277470742 58.35608339708614, 1.850138658654632 58.341038489896164, 1.8409389688885731 58.32889193053247, 1.8254206604383028 58.316987892258354, 1.817204956533934 58.30553737567446, 1.799309087369085 58.29205066522481, 1.7869555250903297 58.27498589443389, 1.764993670007685 58.25877703540146, 1.749683217143433 58.23750107623741, 1.7358973286119976 58.22686252056317, 1.6188505027315663 58.10889481118326, 1.6125886598478378 58.10165547269084, 1.6101848864723851 58.09512920791515, 1.6102523595573162 58.08450582652492, 1.6000687353883531 58.047421366318446, 1.5013792065167715 57.84171876517869, 1.4040590209838884 57.63632581368914, 1.3179819853842516 57.51537844049209, 1.29433545304512 57.44339959195478, 1.1896400889962824 57.223380512825265, 1.187218640410845 57.208822969644636, 1.1685140002338135 57.04565799932774, 1.1688008648754984 56.807433667010045, 1.1680780376993984 56.80277649561659, 1.166123156518566 56.79867132827492, 1.1590063798473484 56.788821896865095, 1.1120108933437145 56.747194865586714, 1.107709988244552 56.74221363897368, 0.9372868461785486 56.44282315190418, 0.9361600473351338 56.43712394120704, 0.9374433255271666 56.43100874594434, 0.9404375971719453 56.42611961415787, 0.9562207131693672 56.40818519010667, 0.9584770060263339 56.402298014848355, 0.9582082510818832 56.396023795107276, 0.8252127156613631 55.972768641740736, 0.7029410893581942 55.57533666453199, 0.6506142793224539 55.05845672177157, 0.5901340949215869 54.44661982830093, 0.5385180611860005 54.329051369838716, 0.3965376078347606 54.16261624745859, 0.2969573911825778 53.959658493290895, 0.2740877003561589 53.90673851599404, 0.266623964650687 53.89413602111301, 0.1891298583283023 53.72956281570764, 0.1795411137006649 53.71570425739035, 0.1712915183957134 53.69839260535605, 0.1678125985223448 53.69372441440906, 0.162787629415652 53.68945121737258, 0.1283854800068933 53.67071220389232, 0.1225264955098541 53.666328993356274, 0.1145815833180996 53.65843864590715)</t>
   </si>
   <si>
-    <t>Node</t>
-  </si>
-  <si>
     <t>Lon</t>
   </si>
   <si>
@@ -1292,9 +1287,6 @@
   </si>
   <si>
     <t>NO_SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>UKE12</t>
@@ -1511,9 +1503,6 @@
     <t>DE_EP</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>Platform - Note: Frigg  field - Norwegian block 25/1 i North Sea, on the boundary with UKD. Production closed 2004.</t>
   </si>
   <si>
@@ -1556,9 +1545,6 @@
     <t>DK_4?</t>
   </si>
   <si>
-    <t>PL_??</t>
-  </si>
-  <si>
     <t>Melkoya en Snohvit coordinaten omgewisseld.</t>
   </si>
   <si>
@@ -1578,6 +1564,57 @@
   </si>
   <si>
     <t>Added Emden 2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Liquef terminal is located in NUTS3 region NO074</t>
+  </si>
+  <si>
+    <t>NO_SV</t>
+  </si>
+  <si>
+    <t>Platform - Note: Frigg  field - Norwegian block 25/1 i North Sea, on the boundary with UKD. Production closed 2004.</t>
+  </si>
+  <si>
+    <t>Grane, COLOCATED WITH HEIMDAL, Mariner, Vesterled, St. Fergus</t>
+  </si>
+  <si>
+    <t>Sleipner area fields Sleipner Øst, Gungne and Sleipner Vest. Sleipner installations also process from tie-in fields Sigyn, Volve, Gudrun, Gina Krog.</t>
+  </si>
+  <si>
+    <t>Sleipner consists of the following installations:</t>
+  </si>
+  <si>
+    <t>Sleipner A - Processing, drilling and Living quarter platform</t>
+  </si>
+  <si>
+    <t>Sleipner R - Riser platform for gas export and condensate export</t>
+  </si>
+  <si>
+    <t>Sleipner T - Processing and CO2 removal platform</t>
+  </si>
+  <si>
+    <t>Sleipner B - Unmanned production platform</t>
+  </si>
+  <si>
+    <t>Sleipner Vest  two platforms:  production/wellhead  Sleipner B and  processing  treatment  Sleipner T.</t>
+  </si>
+  <si>
+    <t>Norpipe H-7</t>
+  </si>
+  <si>
+    <t>person NORWEGIAN PETROLEUM MUSEUM</t>
+  </si>
+  <si>
+    <t>platform - pumping/compressor station Norpipe from Ekofisk to Emden</t>
+  </si>
+  <si>
+    <t>PL428</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1625,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,13 +1677,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1741,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1794,9 +1848,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1813,9 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1824,6 +1872,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2135,10 +2188,10 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2171,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2180,85 +2233,85 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="AB1" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2266,34 +2319,34 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>325524</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>180</v>
-      </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2">
         <v>8.625</v>
@@ -2302,7 +2355,7 @@
         <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2">
         <v>43651</v>
@@ -2317,16 +2370,16 @@
         <v>34925006</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U2" t="s">
         <v>181</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>182</v>
-      </c>
-      <c r="V2" t="s">
-        <v>183</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="10">
@@ -2355,34 +2408,34 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3">
         <v>326068</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
         <v>185</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>186</v>
       </c>
-      <c r="F3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>187</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>188</v>
       </c>
-      <c r="J3" t="s">
-        <v>189</v>
-      </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3">
         <v>16</v>
@@ -2391,7 +2444,7 @@
         <v>344</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3">
         <v>1035952</v>
@@ -2406,16 +2459,16 @@
         <v>34925006</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" t="s">
         <v>190</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>191</v>
-      </c>
-      <c r="V3" t="s">
-        <v>192</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -2446,34 +2499,34 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>307674</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
       </c>
       <c r="L4">
         <v>42</v>
@@ -2482,7 +2535,7 @@
         <v>372</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4">
         <v>2252643</v>
@@ -2497,16 +2550,16 @@
         <v>1944954</v>
       </c>
       <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
         <v>36</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>37</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>39</v>
       </c>
       <c r="W4">
         <v>70</v>
@@ -2525,11 +2578,11 @@
       </c>
       <c r="AB4" s="21" t="str">
         <f>VLOOKUP(I4,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO0A2</v>
+        <v>NO_NN</v>
       </c>
       <c r="AC4" s="21" t="str">
         <f>VLOOKUP(J4,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO0A1</v>
+        <v>Coastal processing facility</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -2537,34 +2590,34 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>326340</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>194</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>40</v>
@@ -2573,7 +2626,7 @@
         <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5">
         <v>2252643</v>
@@ -2588,16 +2641,16 @@
         <v>1944954</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" t="s">
         <v>197</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>198</v>
-      </c>
-      <c r="V5" t="s">
-        <v>199</v>
       </c>
       <c r="W5">
         <v>46</v>
@@ -2608,10 +2661,10 @@
       <c r="Y5" s="10">
         <v>58.188149017412513</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="31">
         <v>4.2226220000000581</v>
       </c>
-      <c r="AA5" s="32">
+      <c r="AA5" s="31">
         <v>55.706969000000072</v>
       </c>
       <c r="AB5" s="21" t="str">
@@ -2623,7 +2676,7 @@
         <v>DE_EP</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -2631,34 +2684,34 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6">
         <v>327394</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
         <v>194</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -2667,7 +2720,7 @@
         <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6">
         <v>2252643</v>
@@ -2682,42 +2735,42 @@
         <v>1944954</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" t="s">
         <v>218</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>219</v>
-      </c>
-      <c r="V6" t="s">
-        <v>220</v>
       </c>
       <c r="W6">
         <v>46</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="31">
         <v>4.2226220000000581</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="31">
         <v>55.706969000000072</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="23">
         <v>7.3264200000000406</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="23">
         <v>53.679700000000082</v>
       </c>
       <c r="AB6" s="21" t="str">
         <f>VLOOKUP(I6,facilities!$B:$Z,9,FALSE)</f>
         <v>DE_EP</v>
       </c>
-      <c r="AC6" s="21" t="str">
+      <c r="AC6" s="21">
         <f>VLOOKUP(J6,facilities!$B:$Z,9,FALSE)</f>
-        <v>DE947</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -2725,34 +2778,34 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>323212</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>167</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>168</v>
-      </c>
       <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
       </c>
       <c r="L7">
         <v>42</v>
@@ -2761,7 +2814,7 @@
         <v>347</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7">
         <v>2252643</v>
@@ -2776,16 +2829,16 @@
         <v>1944954</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" t="s">
         <v>169</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>170</v>
-      </c>
-      <c r="V7" t="s">
-        <v>171</v>
       </c>
       <c r="W7">
         <v>71</v>
@@ -2804,14 +2857,14 @@
       </c>
       <c r="AB7" s="21" t="str">
         <f>VLOOKUP(I7,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO0A1</v>
-      </c>
-      <c r="AC7" s="21" t="str">
+        <v>Coastal processing facility</v>
+      </c>
+      <c r="AC7" s="21">
         <f>VLOOKUP(J7,facilities!$B:$Z,9,FALSE)</f>
-        <v>DE947</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -2819,34 +2872,34 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8">
         <v>326374</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>201</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
         <v>202</v>
       </c>
-      <c r="I8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J8" t="s">
-        <v>203</v>
-      </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8">
         <v>42</v>
@@ -2855,7 +2908,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8">
         <v>2252643</v>
@@ -2870,16 +2923,16 @@
         <v>1944954</v>
       </c>
       <c r="S8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T8" t="s">
+        <v>203</v>
+      </c>
+      <c r="U8" t="s">
         <v>204</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>205</v>
-      </c>
-      <c r="V8" t="s">
-        <v>206</v>
       </c>
       <c r="W8">
         <v>55</v>
@@ -2910,34 +2963,34 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>357492</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>222</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>223</v>
       </c>
-      <c r="I9" t="s">
-        <v>224</v>
-      </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -2946,7 +2999,7 @@
         <v>350</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9">
         <v>2252643</v>
@@ -2961,16 +3014,16 @@
         <v>1944954</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T9" t="s">
+        <v>224</v>
+      </c>
+      <c r="U9" t="s">
         <v>225</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>226</v>
-      </c>
-      <c r="V9" t="s">
-        <v>227</v>
       </c>
       <c r="W9">
         <v>27</v>
@@ -3001,34 +3054,34 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10">
         <v>369461</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
         <v>229</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>230</v>
       </c>
-      <c r="I10" t="s">
-        <v>231</v>
-      </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <v>42</v>
@@ -3037,7 +3090,7 @@
         <v>360</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10">
         <v>2252643</v>
@@ -3052,16 +3105,16 @@
         <v>1944954</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T10" t="s">
+        <v>231</v>
+      </c>
+      <c r="U10" t="s">
         <v>232</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>233</v>
-      </c>
-      <c r="V10" t="s">
-        <v>234</v>
       </c>
       <c r="W10">
         <v>75</v>
@@ -3092,34 +3145,34 @@
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="5">
         <v>369498</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H11" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="5">
         <v>44</v>
@@ -3128,7 +3181,7 @@
         <v>83</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O11" s="5">
         <v>2252643</v>
@@ -3143,16 +3196,16 @@
         <v>1944954</v>
       </c>
       <c r="S11" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="V11" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="W11" s="5">
         <v>72</v>
@@ -3183,34 +3236,34 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>319132</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>78</v>
       </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -3219,7 +3272,7 @@
         <v>430</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12">
         <v>2252643</v>
@@ -3234,16 +3287,16 @@
         <v>1944954</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
         <v>80</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>81</v>
-      </c>
-      <c r="V12" t="s">
-        <v>82</v>
       </c>
       <c r="W12">
         <v>7</v>
@@ -3274,34 +3327,34 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13">
         <v>326918</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
       <c r="H13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>213</v>
-      </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13">
         <v>36</v>
@@ -3310,7 +3363,7 @@
         <v>75</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13">
         <v>2252643</v>
@@ -3325,24 +3378,24 @@
         <v>1944954</v>
       </c>
       <c r="S13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s">
+        <v>213</v>
+      </c>
+      <c r="U13" t="s">
         <v>214</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>215</v>
-      </c>
-      <c r="V13" t="s">
-        <v>216</v>
       </c>
       <c r="W13">
         <v>32</v>
       </c>
-      <c r="X13" s="25">
+      <c r="X13" s="24">
         <v>3.330503000000022</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13" s="24">
         <v>56.490369000000037</v>
       </c>
       <c r="Z13" s="10">
@@ -3360,7 +3413,7 @@
         <v>NO_EV</v>
       </c>
       <c r="AD13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -3368,34 +3421,34 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>319166</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" t="s">
         <v>86</v>
       </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
       <c r="K14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>36</v>
@@ -3404,7 +3457,7 @@
         <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O14">
         <v>2252643</v>
@@ -3419,42 +3472,42 @@
         <v>1944954</v>
       </c>
       <c r="S14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T14" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" t="s">
         <v>88</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>89</v>
-      </c>
-      <c r="V14" t="s">
-        <v>90</v>
       </c>
       <c r="W14">
         <v>32</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14" s="24">
         <v>3.330503000000022</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="24">
         <v>56.490369000000037</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="Z14" s="23">
         <v>4.546302529616848</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AA14" s="23">
         <v>55.465621589145812</v>
       </c>
       <c r="AB14" s="21" t="str">
         <f>VLOOKUP(I14,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_EV</v>
       </c>
-      <c r="AC14" s="21" t="str">
+      <c r="AC14" s="21">
         <f>VLOOKUP(J14,facilities!$B:$Z,9,FALSE)</f>
-        <v>NOB11</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3462,34 +3515,34 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15">
         <v>324844</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15">
         <v>36</v>
@@ -3498,7 +3551,7 @@
         <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O15">
         <v>2252643</v>
@@ -3513,24 +3566,24 @@
         <v>1944954</v>
       </c>
       <c r="S15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T15" t="s">
+        <v>172</v>
+      </c>
+      <c r="U15" t="s">
         <v>173</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>174</v>
-      </c>
-      <c r="V15" t="s">
-        <v>175</v>
       </c>
       <c r="W15">
         <v>32</v>
       </c>
-      <c r="X15" s="24">
+      <c r="X15" s="23">
         <v>4.5569471181611378</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="Y15" s="23">
         <v>55.458982371638299</v>
       </c>
       <c r="Z15" s="10">
@@ -3539,16 +3592,16 @@
       <c r="AA15" s="10">
         <v>54.512231487488343</v>
       </c>
-      <c r="AB15" s="21" t="str">
+      <c r="AB15" s="21">
         <f>VLOOKUP(I15,facilities!$B:$Z,9,FALSE)</f>
-        <v>NOB11</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="21" t="str">
         <f>VLOOKUP(J15,facilities!$B:$Z,9,FALSE)</f>
-        <v>DE_H7</v>
+        <v>Norpipe H-7</v>
       </c>
       <c r="AD15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3556,34 +3609,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>321784</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
         <v>111</v>
       </c>
-      <c r="J16" t="s">
-        <v>112</v>
-      </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>36</v>
@@ -3592,7 +3645,7 @@
         <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16">
         <v>2252643</v>
@@ -3607,16 +3660,16 @@
         <v>1944954</v>
       </c>
       <c r="S16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T16" t="s">
+        <v>112</v>
+      </c>
+      <c r="U16" t="s">
         <v>113</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>114</v>
-      </c>
-      <c r="V16" t="s">
-        <v>115</v>
       </c>
       <c r="W16">
         <v>32</v>
@@ -3635,11 +3688,11 @@
       </c>
       <c r="AB16" s="21" t="str">
         <f>VLOOKUP(I16,facilities!$B:$Z,9,FALSE)</f>
-        <v>DE_H7</v>
-      </c>
-      <c r="AC16" s="21" t="str">
+        <v>Norpipe H-7</v>
+      </c>
+      <c r="AC16" s="21">
         <f>VLOOKUP(J16,facilities!$B:$Z,9,FALSE)</f>
-        <v>DE947</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5"/>
     </row>
@@ -3648,34 +3701,34 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>319676</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>93</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>94</v>
       </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17">
         <v>36</v>
@@ -3684,7 +3737,7 @@
         <v>122</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17">
         <v>2252643</v>
@@ -3699,16 +3752,16 @@
         <v>1944954</v>
       </c>
       <c r="S17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T17" t="s">
+        <v>95</v>
+      </c>
+      <c r="U17" t="s">
         <v>96</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>97</v>
-      </c>
-      <c r="V17" t="s">
-        <v>98</v>
       </c>
       <c r="W17">
         <v>35</v>
@@ -3739,34 +3792,34 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>313556</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
         <v>33</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -3775,7 +3828,7 @@
         <v>300</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18">
         <v>2252643</v>
@@ -3790,16 +3843,16 @@
         <v>1944954</v>
       </c>
       <c r="S18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" t="s">
         <v>52</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>53</v>
-      </c>
-      <c r="V18" t="s">
-        <v>54</v>
       </c>
       <c r="W18">
         <v>25</v>
@@ -3816,13 +3869,13 @@
       <c r="AA18" s="6">
         <v>59.333542700038009</v>
       </c>
-      <c r="AB18" s="21" t="str">
+      <c r="AB18" s="21">
         <f>VLOOKUP(I18,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_SG</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="21" t="str">
         <f>VLOOKUP(J18,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO0A1</v>
+        <v>Coastal processing facility</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -3830,34 +3883,34 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19">
         <v>322464</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
       <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>106</v>
+      <c r="J19" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <v>36</v>
@@ -3866,7 +3919,7 @@
         <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19">
         <v>2252643</v>
@@ -3881,16 +3934,16 @@
         <v>1944954</v>
       </c>
       <c r="S19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T19" t="s">
+        <v>133</v>
+      </c>
+      <c r="U19" t="s">
         <v>134</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>135</v>
-      </c>
-      <c r="V19" t="s">
-        <v>136</v>
       </c>
       <c r="W19">
         <v>10</v>
@@ -3921,34 +3974,34 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>323042</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" t="s">
         <v>33</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
       </c>
       <c r="L20">
         <v>28</v>
@@ -3957,7 +4010,7 @@
         <v>300</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20">
         <v>2252643</v>
@@ -3972,16 +4025,16 @@
         <v>1944954</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T20" t="s">
+        <v>151</v>
+      </c>
+      <c r="U20" t="s">
         <v>152</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>153</v>
-      </c>
-      <c r="V20" t="s">
-        <v>154</v>
       </c>
       <c r="W20">
         <v>21</v>
@@ -4000,7 +4053,7 @@
       </c>
       <c r="AB20" s="21" t="str">
         <f>VLOOKUP(I20,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO0A1</v>
+        <v>Coastal processing facility</v>
       </c>
       <c r="AC20" s="21" t="str">
         <f>VLOOKUP(J20,facilities!$B:$Z,9,FALSE)</f>
@@ -4012,34 +4065,34 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21">
         <v>326408</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
       <c r="H21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>86</v>
+        <v>131</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21">
         <v>36</v>
@@ -4048,7 +4101,7 @@
         <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21">
         <v>2252643</v>
@@ -4063,16 +4116,16 @@
         <v>1944954</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
+        <v>207</v>
+      </c>
+      <c r="U21" t="s">
         <v>208</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>209</v>
-      </c>
-      <c r="V21" t="s">
-        <v>210</v>
       </c>
       <c r="W21">
         <v>30</v>
@@ -4083,10 +4136,10 @@
       <c r="Y21" s="10">
         <v>58.184409229014761</v>
       </c>
-      <c r="Z21" s="25">
+      <c r="Z21" s="24">
         <v>3.330503000000022</v>
       </c>
-      <c r="AA21" s="25">
+      <c r="AA21" s="24">
         <v>56.490369000000037</v>
       </c>
       <c r="AB21" s="21" t="str">
@@ -4098,7 +4151,7 @@
         <v>NO_EV</v>
       </c>
       <c r="AD21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -4106,34 +4159,34 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>318010</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>51</v>
-      </c>
       <c r="K22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22">
         <v>30</v>
@@ -4142,7 +4195,7 @@
         <v>145</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O22">
         <v>2252643</v>
@@ -4157,16 +4210,16 @@
         <v>1944954</v>
       </c>
       <c r="S22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" t="s">
         <v>72</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>73</v>
-      </c>
-      <c r="V22" t="s">
-        <v>74</v>
       </c>
       <c r="W22">
         <v>25</v>
@@ -4187,9 +4240,9 @@
         <f>VLOOKUP(I22,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_SG</v>
       </c>
-      <c r="AC22" s="21" t="str">
+      <c r="AC22" s="21">
         <f>VLOOKUP(J22,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_SG</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -4197,34 +4250,34 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23">
         <v>377106</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
         <v>259</v>
       </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
         <v>260</v>
       </c>
-      <c r="I23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" t="s">
-        <v>261</v>
-      </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23">
         <v>32</v>
@@ -4233,7 +4286,7 @@
         <v>145</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O23">
         <v>2252643</v>
@@ -4248,16 +4301,16 @@
         <v>1944954</v>
       </c>
       <c r="S23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T23" t="s">
+        <v>261</v>
+      </c>
+      <c r="U23" t="s">
         <v>262</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>263</v>
-      </c>
-      <c r="V23" t="s">
-        <v>264</v>
       </c>
       <c r="W23">
         <v>13.5</v>
@@ -4280,7 +4333,7 @@
       </c>
       <c r="AC23" s="21" t="str">
         <f>VLOOKUP(J23,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_FT</v>
+        <v>Start of Flags, with Brent, add node to NUTS3 overview</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -4288,34 +4341,34 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24">
         <v>322532</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" t="s">
         <v>146</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" t="s">
-        <v>147</v>
-      </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24">
         <v>32</v>
@@ -4324,7 +4377,7 @@
         <v>120</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O24">
         <v>2252643</v>
@@ -4339,16 +4392,16 @@
         <v>1944954</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T24" t="s">
+        <v>147</v>
+      </c>
+      <c r="U24" t="s">
         <v>148</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>149</v>
-      </c>
-      <c r="V24" t="s">
-        <v>150</v>
       </c>
       <c r="W24">
         <v>39</v>
@@ -4369,9 +4422,9 @@
         <f>VLOOKUP(I24,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_AE</v>
       </c>
-      <c r="AC24" s="21" t="str">
+      <c r="AC24" s="21">
         <f>VLOOKUP(J24,facilities!$B:$Z,9,FALSE)</f>
-        <v>UKM50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -4379,34 +4432,34 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>321002</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" t="s">
         <v>42</v>
       </c>
-      <c r="I25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
       <c r="K25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25">
         <v>40</v>
@@ -4415,7 +4468,7 @@
         <v>90</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O25">
         <v>2252643</v>
@@ -4430,16 +4483,16 @@
         <v>1944954</v>
       </c>
       <c r="S25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
+        <v>100</v>
+      </c>
+      <c r="U25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>102</v>
-      </c>
-      <c r="V25" t="s">
-        <v>103</v>
       </c>
       <c r="W25">
         <v>55</v>
@@ -4462,7 +4515,7 @@
       </c>
       <c r="AC25" s="21" t="str">
         <f>VLOOKUP(J25,facilities!$B:$Z,9,FALSE)</f>
-        <v>BE_ZP</v>
+        <v>Connection point</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -4470,34 +4523,34 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>310326</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>42</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>43</v>
       </c>
-      <c r="J26" t="s">
-        <v>44</v>
-      </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26">
         <v>40</v>
@@ -4506,7 +4559,7 @@
         <v>39.9</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O26">
         <v>2252643</v>
@@ -4521,16 +4574,16 @@
         <v>1944954</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" t="s">
         <v>45</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>46</v>
-      </c>
-      <c r="V26" t="s">
-        <v>47</v>
       </c>
       <c r="W26">
         <v>42</v>
@@ -4549,7 +4602,7 @@
       </c>
       <c r="AB26" s="21" t="str">
         <f>VLOOKUP(I26,facilities!$B:$Z,9,FALSE)</f>
-        <v>BE_ZP</v>
+        <v>Connection point</v>
       </c>
       <c r="AC26" s="21" t="str">
         <f>VLOOKUP(J26,facilities!$B:$Z,9,FALSE)</f>
@@ -4562,34 +4615,34 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>323076</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27">
         <v>40</v>
@@ -4598,7 +4651,7 @@
         <v>365</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O27">
         <v>2252643</v>
@@ -4613,16 +4666,16 @@
         <v>1944954</v>
       </c>
       <c r="S27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
+        <v>156</v>
+      </c>
+      <c r="U27" t="s">
         <v>157</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>158</v>
-      </c>
-      <c r="V27" t="s">
-        <v>159</v>
       </c>
       <c r="W27">
         <v>74</v>
@@ -4653,34 +4706,34 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28">
         <v>323110</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" t="s">
-        <v>162</v>
-      </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28">
         <v>40</v>
@@ -4689,7 +4742,7 @@
         <v>368</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O28">
         <v>2252643</v>
@@ -4704,16 +4757,16 @@
         <v>1944954</v>
       </c>
       <c r="S28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T28" t="s">
+        <v>162</v>
+      </c>
+      <c r="U28" t="s">
         <v>163</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>164</v>
-      </c>
-      <c r="V28" t="s">
-        <v>165</v>
       </c>
       <c r="W28">
         <v>73</v>
@@ -4744,34 +4797,34 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29">
         <v>406790</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" t="s">
         <v>276</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
         <v>277</v>
       </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>278</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>279</v>
       </c>
-      <c r="J29" t="s">
-        <v>280</v>
-      </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -4780,7 +4833,7 @@
         <v>385</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O29">
         <v>4480765</v>
@@ -4795,16 +4848,16 @@
         <v>1944954</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T29" t="s">
+        <v>280</v>
+      </c>
+      <c r="U29" t="s">
         <v>281</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>282</v>
-      </c>
-      <c r="V29" t="s">
-        <v>283</v>
       </c>
       <c r="W29">
         <v>17</v>
@@ -4835,34 +4888,34 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30">
         <v>322498</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
         <v>138</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
         <v>139</v>
       </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" t="s">
         <v>140</v>
       </c>
-      <c r="I30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" t="s">
-        <v>141</v>
-      </c>
       <c r="K30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L30">
         <v>18</v>
@@ -4871,7 +4924,7 @@
         <v>130</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O30">
         <v>1036213</v>
@@ -4886,16 +4939,16 @@
         <v>32011216</v>
       </c>
       <c r="S30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s">
+        <v>141</v>
+      </c>
+      <c r="U30" t="s">
         <v>142</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>143</v>
-      </c>
-      <c r="V30" t="s">
-        <v>144</v>
       </c>
       <c r="W30">
         <v>10</v>
@@ -4918,7 +4971,7 @@
       </c>
       <c r="AC30" s="21" t="str">
         <f>VLOOKUP(J30,facilities!$B:$Z,9,FALSE)</f>
-        <v>SKIP</v>
+        <v>NO_AE</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -4926,34 +4979,34 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31">
         <v>425280</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" t="s">
         <v>290</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
         <v>291</v>
       </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
         <v>292</v>
       </c>
-      <c r="I31" t="s">
-        <v>291</v>
-      </c>
-      <c r="J31" t="s">
-        <v>293</v>
-      </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31">
         <v>14</v>
@@ -4962,7 +5015,7 @@
         <v>109</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O31">
         <v>18116481</v>
@@ -4977,16 +5030,16 @@
         <v>32011216</v>
       </c>
       <c r="S31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T31" t="s">
+        <v>293</v>
+      </c>
+      <c r="U31" t="s">
         <v>294</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>295</v>
-      </c>
-      <c r="V31" t="s">
-        <v>296</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="10">
@@ -5015,34 +5068,34 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>321818</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
         <v>117</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
         <v>118</v>
       </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>119</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>120</v>
       </c>
-      <c r="J32" t="s">
-        <v>121</v>
-      </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32">
         <v>16</v>
@@ -5051,7 +5104,7 @@
         <v>362</v>
       </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O32">
         <v>124293</v>
@@ -5066,16 +5119,16 @@
         <v>1944954</v>
       </c>
       <c r="S32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s">
+        <v>121</v>
+      </c>
+      <c r="U32" t="s">
         <v>122</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>123</v>
-      </c>
-      <c r="V32" t="s">
-        <v>124</v>
       </c>
       <c r="W32">
         <v>5</v>
@@ -5106,34 +5159,34 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <v>321852</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
-        <v>127</v>
-      </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33">
         <v>16</v>
@@ -5142,7 +5195,7 @@
         <v>430</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O33">
         <v>1035969</v>
@@ -5157,16 +5210,16 @@
         <v>32011216</v>
       </c>
       <c r="S33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T33" t="s">
+        <v>127</v>
+      </c>
+      <c r="U33" t="s">
         <v>128</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>129</v>
-      </c>
-      <c r="V33" t="s">
-        <v>130</v>
       </c>
       <c r="W33">
         <v>11</v>
@@ -5197,34 +5250,34 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34">
         <v>456695</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" t="s">
         <v>324</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
         <v>325</v>
       </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>326</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>327</v>
       </c>
-      <c r="J34" t="s">
-        <v>328</v>
-      </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L34">
         <v>18</v>
@@ -5233,7 +5286,7 @@
         <v>280</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34">
         <v>26376286</v>
@@ -5248,16 +5301,16 @@
         <v>32011216</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T34" t="s">
+        <v>328</v>
+      </c>
+      <c r="U34" t="s">
         <v>329</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>330</v>
-      </c>
-      <c r="V34" t="s">
-        <v>331</v>
       </c>
       <c r="W34">
         <v>5</v>
@@ -5288,34 +5341,34 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35">
         <v>438653</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
         <v>298</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s">
         <v>299</v>
       </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>300</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>301</v>
       </c>
-      <c r="J35" t="s">
-        <v>302</v>
-      </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35">
         <v>24</v>
@@ -5324,7 +5377,7 @@
         <v>115</v>
       </c>
       <c r="N35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O35">
         <v>22223002</v>
@@ -5339,16 +5392,16 @@
         <v>32011216</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T35" t="s">
+        <v>302</v>
+      </c>
+      <c r="U35" t="s">
         <v>303</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>304</v>
-      </c>
-      <c r="V35" t="s">
-        <v>305</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="10">
@@ -5369,10 +5422,10 @@
       </c>
       <c r="AC35" s="21" t="str">
         <f>VLOOKUP(J35,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_?</v>
+        <v>Platform - Note: Frigg  field - Norwegian block 25/1 i North Sea, on the boundary with UKD. Production closed 2004.</v>
       </c>
       <c r="AD35" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -5380,34 +5433,34 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36">
         <v>371254</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" t="s">
         <v>245</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>246</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" t="s">
         <v>247</v>
       </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>230</v>
       </c>
-      <c r="I36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J36" t="s">
-        <v>231</v>
-      </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36">
         <v>30</v>
@@ -5416,7 +5469,7 @@
         <v>850</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36">
         <v>2762452</v>
@@ -5431,16 +5484,16 @@
         <v>562</v>
       </c>
       <c r="S36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T36" t="s">
+        <v>248</v>
+      </c>
+      <c r="U36" t="s">
         <v>249</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>250</v>
-      </c>
-      <c r="V36" t="s">
-        <v>251</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="10">
@@ -5469,34 +5522,34 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37">
         <v>371292</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" t="s">
         <v>253</v>
       </c>
-      <c r="E37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>230</v>
       </c>
-      <c r="I37" t="s">
-        <v>254</v>
-      </c>
-      <c r="J37" t="s">
-        <v>231</v>
-      </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37">
         <v>30</v>
@@ -5505,7 +5558,7 @@
         <v>850</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O37">
         <v>2762452</v>
@@ -5520,16 +5573,16 @@
         <v>562</v>
       </c>
       <c r="S37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T37" t="s">
+        <v>254</v>
+      </c>
+      <c r="U37" t="s">
         <v>255</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>256</v>
-      </c>
-      <c r="V37" t="s">
-        <v>257</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="10">
@@ -5558,34 +5611,34 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C38">
         <v>444927</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" t="s">
         <v>316</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
         <v>317</v>
       </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>318</v>
       </c>
-      <c r="I38" t="s">
-        <v>319</v>
-      </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38">
         <v>36</v>
@@ -5594,7 +5647,7 @@
         <v>1265</v>
       </c>
       <c r="N38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O38">
         <v>17343422</v>
@@ -5609,16 +5662,16 @@
         <v>1944954</v>
       </c>
       <c r="S38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T38" t="s">
+        <v>319</v>
+      </c>
+      <c r="U38" t="s">
         <v>320</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>321</v>
-      </c>
-      <c r="V38" t="s">
-        <v>322</v>
       </c>
       <c r="W38">
         <v>70</v>
@@ -5649,34 +5702,34 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C39">
         <v>406393</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" t="s">
         <v>266</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>267</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
         <v>268</v>
       </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>269</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>270</v>
       </c>
-      <c r="J39" t="s">
-        <v>271</v>
-      </c>
       <c r="K39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L39">
         <v>26</v>
@@ -5685,7 +5738,7 @@
         <v>440</v>
       </c>
       <c r="N39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O39">
         <v>4704482</v>
@@ -5700,16 +5753,16 @@
         <v>28544099</v>
       </c>
       <c r="S39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
+        <v>271</v>
+      </c>
+      <c r="U39" t="s">
         <v>272</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>273</v>
-      </c>
-      <c r="V39" t="s">
-        <v>274</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="10">
@@ -5728,9 +5781,9 @@
         <f>VLOOKUP(I39,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_NN</v>
       </c>
-      <c r="AC39" s="21" t="str">
+      <c r="AC39" s="21">
         <f>VLOOKUP(J39,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_NN</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
@@ -5738,34 +5791,34 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40">
         <v>370369</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" t="s">
         <v>236</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
         <v>237</v>
       </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>238</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>239</v>
       </c>
-      <c r="J40" t="s">
-        <v>240</v>
-      </c>
       <c r="K40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40">
         <v>28</v>
@@ -5774,7 +5827,7 @@
         <v>325</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O40">
         <v>2053062</v>
@@ -5789,16 +5842,16 @@
         <v>32011216</v>
       </c>
       <c r="S40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T40" t="s">
+        <v>240</v>
+      </c>
+      <c r="U40" t="s">
         <v>241</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>242</v>
-      </c>
-      <c r="V40" t="s">
-        <v>243</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="10">
@@ -5815,11 +5868,11 @@
       </c>
       <c r="AB40" s="21" t="str">
         <f>VLOOKUP(I40,facilities!$B:$Z,9,FALSE)</f>
-        <v>L_NOR</v>
+        <v>NO_SV</v>
       </c>
       <c r="AC40" s="21" t="str">
         <f>VLOOKUP(J40,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO074</v>
+        <v>L_NOR</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -5827,34 +5880,34 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>314542</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
         <v>56</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>57</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
         <v>58</v>
       </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>59</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>60</v>
       </c>
-      <c r="J41" t="s">
-        <v>61</v>
-      </c>
       <c r="K41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41">
         <v>36</v>
@@ -5863,7 +5916,7 @@
         <v>347</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O41">
         <v>101998</v>
@@ -5878,16 +5931,16 @@
         <v>32011216</v>
       </c>
       <c r="S41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T41" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" t="s">
         <v>62</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>63</v>
-      </c>
-      <c r="V41" t="s">
-        <v>64</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="10">
@@ -5916,34 +5969,34 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>314576</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
-      </c>
       <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
         <v>60</v>
       </c>
-      <c r="J42" t="s">
-        <v>61</v>
-      </c>
       <c r="K42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L42">
         <v>36</v>
@@ -5952,7 +6005,7 @@
         <v>347</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O42">
         <v>101998</v>
@@ -5967,16 +6020,16 @@
         <v>32011216</v>
       </c>
       <c r="S42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T42" t="s">
+        <v>66</v>
+      </c>
+      <c r="U42" t="s">
         <v>67</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>68</v>
-      </c>
-      <c r="V42" t="s">
-        <v>69</v>
       </c>
       <c r="W42" s="3"/>
       <c r="X42" s="10">
@@ -6005,34 +6058,34 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>414837</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
         <v>284</v>
       </c>
-      <c r="E43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>285</v>
-      </c>
       <c r="I43" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" t="s">
         <v>60</v>
       </c>
-      <c r="J43" t="s">
-        <v>61</v>
-      </c>
       <c r="K43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43">
         <v>36</v>
@@ -6041,7 +6094,7 @@
         <v>347</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O43">
         <v>101998</v>
@@ -6056,16 +6109,16 @@
         <v>32011216</v>
       </c>
       <c r="S43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T43" t="s">
+        <v>285</v>
+      </c>
+      <c r="U43" t="s">
         <v>286</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>287</v>
-      </c>
-      <c r="V43" t="s">
-        <v>288</v>
       </c>
       <c r="W43" s="3"/>
       <c r="X43" s="10">
@@ -6094,34 +6147,34 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44">
         <v>442969</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
         <v>307</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
         <v>308</v>
       </c>
-      <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>309</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>310</v>
       </c>
-      <c r="J44" t="s">
-        <v>311</v>
-      </c>
       <c r="K44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L44">
         <v>16</v>
@@ -6130,7 +6183,7 @@
         <v>117</v>
       </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O44">
         <v>22508017</v>
@@ -6145,16 +6198,16 @@
         <v>1944954</v>
       </c>
       <c r="S44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T44" t="s">
+        <v>311</v>
+      </c>
+      <c r="U44" t="s">
         <v>312</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>313</v>
-      </c>
-      <c r="V44" t="s">
-        <v>314</v>
       </c>
       <c r="W44">
         <v>5</v>
@@ -6175,9 +6228,9 @@
         <f>VLOOKUP(I44,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_AE</v>
       </c>
-      <c r="AC44" s="21" t="str">
+      <c r="AC44" s="21">
         <f>VLOOKUP(J44,facilities!$B:$Z,9,FALSE)</f>
-        <v>NO_GS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6185,34 +6238,34 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>321036</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" t="s">
         <v>105</v>
       </c>
-      <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" t="s">
-        <v>106</v>
-      </c>
       <c r="K45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45">
         <v>30</v>
@@ -6221,7 +6274,7 @@
         <v>83</v>
       </c>
       <c r="N45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O45">
         <v>124235</v>
@@ -6236,16 +6289,16 @@
         <v>1944954</v>
       </c>
       <c r="S45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T45" t="s">
+        <v>106</v>
+      </c>
+      <c r="U45" t="s">
         <v>107</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>108</v>
-      </c>
-      <c r="V45" t="s">
-        <v>109</v>
       </c>
       <c r="W45">
         <v>55</v>
@@ -6277,22 +6330,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>490</v>
+        <v>331</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>486</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X46" s="11">
         <v>6.5038</v>
@@ -6320,22 +6373,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>497</v>
+        <v>331</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>493</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X47" s="11">
         <v>9.3108000000000004</v>
@@ -6364,22 +6417,22 @@
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>333</v>
-      </c>
       <c r="V48" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="W48" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="X48" s="11">
         <v>11.2102</v>
@@ -6399,7 +6452,7 @@
       </c>
       <c r="AC48" s="21" t="str">
         <f>VLOOKUP(J48,facilities!$B:$Z,9,FALSE)</f>
-        <v>PL_??</v>
+        <v>PL428</v>
       </c>
     </row>
     <row r="49" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6407,22 +6460,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="V49" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="W49" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="X49" s="11">
         <v>-1.104584</v>
@@ -6450,22 +6503,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V50" s="5" t="s">
+      <c r="W50" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="X50" s="11">
         <v>-1.8256509999999999</v>
@@ -6483,34 +6536,34 @@
         <f>VLOOKUP(I50,facilities!$B:$Z,9,FALSE)</f>
         <v>NO_BR</v>
       </c>
-      <c r="AC50" s="21" t="str">
+      <c r="AC50" s="21">
         <f>VLOOKUP(J50,facilities!$B:$Z,9,FALSE)</f>
-        <v>UKM50</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6529,11 +6582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77:D77"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6550,34 +6603,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>476</v>
+        <v>414</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6585,7 +6638,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="13">
         <v>23.58734798579594</v>
@@ -6594,7 +6647,7 @@
         <v>70.685443717529964</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F2">
         <v>119.05</v>
@@ -6604,17 +6657,18 @@
         <v>1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I2" s="29">
+        <v>469</v>
+      </c>
+      <c r="I2" s="28">
         <f t="shared" ref="I2:I33" si="0">IF(G2=1,F2,0)</f>
         <v>119.05</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>424</v>
+      <c r="J2" s="15" t="str">
+        <f>VLOOKUP(B2,NewRuud!B2:J84,9,FALSE)</f>
+        <v>L_NOR</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6622,7 +6676,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="13">
         <v>21.226541519000019</v>
@@ -6631,7 +6685,7 @@
         <v>71.571334839000031</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F3">
         <v>8889.5949999999993</v>
@@ -6641,15 +6695,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <f t="shared" si="0"/>
         <v>8889.5949999999993</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>435</v>
+      <c r="J3" s="15" t="str">
+        <f>VLOOKUP(B3,NewRuud!B3:J85,9,FALSE)</f>
+        <v>NO_SV</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6657,7 +6712,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="13">
         <v>7.1072270000000231</v>
@@ -6666,7 +6721,7 @@
         <v>67.055610000000058</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F4">
         <v>8889.5949999999993</v>
@@ -6676,12 +6731,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <f t="shared" si="0"/>
         <v>8889.5949999999993</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>432</v>
+      <c r="J4" s="15" t="str">
+        <f>VLOOKUP(B4,NewRuud!B4:J86,9,FALSE)</f>
+        <v>NO_AD</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6689,7 +6745,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="13">
         <v>8.0785441179034034</v>
@@ -6698,7 +6754,7 @@
         <v>66.029330899408933</v>
       </c>
       <c r="E5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F5">
         <v>1041.0509999999999</v>
@@ -6708,14 +6764,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="I5" s="29">
+        <v>470</v>
+      </c>
+      <c r="I5" s="28">
         <f t="shared" si="0"/>
         <v>1041.0509999999999</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>415</v>
+      <c r="J5" s="15" t="str">
+        <f>VLOOKUP(B5,NewRuud!B5:J87,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6723,7 +6780,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="13">
         <v>7.6558328198016818</v>
@@ -6732,7 +6789,7 @@
         <v>65.693743899121472</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F6">
         <v>48.064999999999998</v>
@@ -6742,14 +6799,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="I6" s="29">
+        <v>470</v>
+      </c>
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>415</v>
+      <c r="J6" s="15" t="str">
+        <f>VLOOKUP(B6,NewRuud!B6:J88,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6757,7 +6815,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="13">
         <v>7.3202454238671333</v>
@@ -6766,7 +6824,7 @@
         <v>65.321499578632455</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F7">
         <v>1214.5999999999999</v>
@@ -6776,12 +6834,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <f t="shared" si="0"/>
         <v>1214.5999999999999</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>415</v>
+      <c r="J7" s="15" t="str">
+        <f>VLOOKUP(B7,NewRuud!B7:J89,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6789,7 +6848,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="13">
         <v>6.8036598360000653</v>
@@ -6798,7 +6857,7 @@
         <v>65.094471500000054</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
@@ -6806,12 +6865,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>415</v>
+      <c r="J8" s="15">
+        <f>VLOOKUP(B8,NewRuud!B8:J90,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6819,7 +6879,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="13">
         <v>6.8014610000000744</v>
@@ -6828,7 +6888,7 @@
         <v>65.084516000000065</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F9">
         <v>1214.5999999999999</v>
@@ -6838,12 +6898,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <f t="shared" si="0"/>
         <v>1214.5999999999999</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>415</v>
+      <c r="J9" s="15" t="str">
+        <f>VLOOKUP(B9,NewRuud!B9:J91,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6851,7 +6912,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="13">
         <v>7.7910261052919596</v>
@@ -6860,7 +6921,7 @@
         <v>64.350567591210293</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F10">
         <v>48.064999999999998</v>
@@ -6870,12 +6931,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>415</v>
+      <c r="J10" s="15" t="str">
+        <f>VLOOKUP(B10,NewRuud!B10:J92,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6883,7 +6945,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="13">
         <v>6.4412580000000617</v>
@@ -6892,7 +6954,7 @@
         <v>64.233255000000042</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F11">
         <v>48.064999999999998</v>
@@ -6902,12 +6964,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>415</v>
+      <c r="J11" s="15" t="str">
+        <f>VLOOKUP(B11,NewRuud!B11:J93,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6915,7 +6978,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="13">
         <v>5.3867635720000644</v>
@@ -6924,7 +6987,7 @@
         <v>63.528081670000063</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F12">
         <v>48.064999999999998</v>
@@ -6934,12 +6997,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>433</v>
+      <c r="J12" s="15" t="str">
+        <f>VLOOKUP(B12,NewRuud!B12:J94,9,FALSE)</f>
+        <v>NO_OL</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6947,7 +7011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="13">
         <v>5.3865159610000433</v>
@@ -6956,7 +7020,7 @@
         <v>63.528076290000058</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -6966,12 +7030,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>433</v>
+      <c r="J13" s="15" t="str">
+        <f>VLOOKUP(B13,NewRuud!B13:J95,9,FALSE)</f>
+        <v>NO_OL</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6979,7 +7044,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="13">
         <v>8.6582155394689266</v>
@@ -6988,7 +7053,7 @@
         <v>63.398890962560763</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -6998,15 +7063,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>425</v>
+      <c r="J14" s="15" t="str">
+        <f>VLOOKUP(B14,NewRuud!B14:J96,9,FALSE)</f>
+        <v>NO060</v>
       </c>
       <c r="K14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -7014,7 +7080,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="13">
         <v>6.9457712170000718</v>
@@ -7023,7 +7089,7 @@
         <v>62.851558685000043</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F15">
         <v>3093.8470000000002</v>
@@ -7033,15 +7099,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <f t="shared" si="0"/>
         <v>3093.8470000000002</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>426</v>
+      <c r="J15" s="15" t="str">
+        <f>VLOOKUP(B15,NewRuud!B15:J97,9,FALSE)</f>
+        <v>NO0A3</v>
       </c>
       <c r="K15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -7049,7 +7116,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" s="13">
         <v>6.9457712170000718</v>
@@ -7058,7 +7125,7 @@
         <v>62.851558685000043</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F16">
         <v>3093.8470000000002</v>
@@ -7067,9 +7134,13 @@
         <f>COUNTIF(B$2:B16,B16)</f>
         <v>2</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29">
+      <c r="H16" s="29"/>
+      <c r="I16" s="28">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <f>VLOOKUP(B16,NewRuud!B16:J98,9,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7078,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13">
         <v>4.6885411271899056</v>
@@ -7087,7 +7158,7 @@
         <v>62.302728638549418</v>
       </c>
       <c r="E17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="17">
@@ -7095,17 +7166,18 @@
         <v>1</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="I17" s="29">
+        <v>470</v>
+      </c>
+      <c r="I17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>427</v>
+      <c r="J17" s="15" t="str">
+        <f>VLOOKUP(B17,NewRuud!B17:J99,9,FALSE)</f>
+        <v>NO_NN</v>
       </c>
       <c r="K17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -7113,7 +7185,7 @@
         <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" s="13">
         <v>3.9049897926673558</v>
@@ -7122,7 +7194,7 @@
         <v>61.330193776287437</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F18">
         <v>2588.0810000000001</v>
@@ -7132,12 +7204,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="14"/>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <f t="shared" si="0"/>
         <v>2588.0810000000001</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>421</v>
+      <c r="J18" s="15" t="str">
+        <f>VLOOKUP(B18,NewRuud!B18:J100,9,FALSE)</f>
+        <v>NO_BG</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -7145,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="13">
         <v>1.8315257775840801</v>
@@ -7154,7 +7227,7 @@
         <v>61.20244504760155</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -7164,12 +7237,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>417</v>
+      <c r="J19" s="15" t="str">
+        <f>VLOOKUP(B19,NewRuud!B19:J101,9,FALSE)</f>
+        <v>NO_SG</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -7177,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>1.845936000000052</v>
@@ -7186,7 +7260,7 @@
         <v>61.185830000000067</v>
       </c>
       <c r="E20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="17">
@@ -7194,12 +7268,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="14"/>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>417</v>
+      <c r="J20" s="15">
+        <f>VLOOKUP(B20,NewRuud!B20:J102,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -7207,7 +7282,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="13">
         <v>1.845936000000052</v>
@@ -7216,20 +7291,21 @@
         <v>61.185830000000067</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="18">
         <f>COUNTIF(B$2:B21,B21)</f>
         <v>2</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29">
+      <c r="H21" s="29"/>
+      <c r="I21" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>418</v>
+      <c r="J21" s="15">
+        <f>VLOOKUP(B21,NewRuud!B21:J103,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -7237,7 +7313,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="13">
         <v>2.5070780834093052</v>
@@ -7246,7 +7322,7 @@
         <v>61.077581935633752</v>
       </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F22">
         <v>508.40300000000002</v>
@@ -7256,12 +7332,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <f t="shared" si="0"/>
         <v>508.40300000000002</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>434</v>
+      <c r="J22" s="15" t="str">
+        <f>VLOOKUP(B22,NewRuud!B22:J104,9,FALSE)</f>
+        <v>NO_KV</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -7269,7 +7346,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C23" s="13">
         <v>1.7050129999999999</v>
@@ -7278,7 +7355,7 @@
         <v>61.034477000000003</v>
       </c>
       <c r="E23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F23">
         <v>68.573999999999998</v>
@@ -7288,15 +7365,16 @@
         <v>1</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <f t="shared" si="0"/>
         <v>68.573999999999998</v>
       </c>
-      <c r="J23" s="21" t="s">
-        <v>454</v>
+      <c r="J23" s="15" t="str">
+        <f>VLOOKUP(B23,NewRuud!B23:J105,9,FALSE)</f>
+        <v>NO_BR</v>
       </c>
       <c r="K23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -7304,7 +7382,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="13">
         <v>1.700189114000068</v>
@@ -7313,7 +7391,7 @@
         <v>61.022018433000028</v>
       </c>
       <c r="E24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="17">
@@ -7321,15 +7399,16 @@
         <v>1</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>453</v>
+      <c r="J24" s="15" t="str">
+        <f>VLOOKUP(B24,NewRuud!B24:J106,9,FALSE)</f>
+        <v>Start of Flags, with Brent, add node to NUTS3 overview</v>
       </c>
       <c r="K24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -7337,7 +7416,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="13">
         <v>1.6999852660000561</v>
@@ -7346,7 +7425,7 @@
         <v>61.020797730000027</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F25">
         <v>2588.0810000000001</v>
@@ -7356,12 +7435,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <f t="shared" si="0"/>
         <v>2588.0810000000001</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>421</v>
+      <c r="J25" s="15" t="str">
+        <f>VLOOKUP(B25,NewRuud!B25:J107,9,FALSE)</f>
+        <v>NO_BG</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -7369,7 +7449,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="13">
         <v>2.8980550000000558</v>
@@ -7378,7 +7458,7 @@
         <v>60.560633000000053</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -7388,12 +7468,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="14"/>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>421</v>
+      <c r="J26" s="15" t="str">
+        <f>VLOOKUP(B26,NewRuud!B26:J108,9,FALSE)</f>
+        <v>NO_BG</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -7401,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="13">
         <v>4.835830000000044</v>
@@ -7410,7 +7491,7 @@
         <v>60.550175000000081</v>
       </c>
       <c r="E27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F27">
         <v>2628.125</v>
@@ -7420,12 +7501,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="14"/>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f t="shared" si="0"/>
         <v>2628.125</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>436</v>
+      <c r="J27" s="15" t="str">
+        <f>VLOOKUP(B27,NewRuud!B27:J109,9,FALSE)</f>
+        <v>NO_TR</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -7433,7 +7515,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="13">
         <v>4.8385970033810022</v>
@@ -7442,7 +7524,7 @@
         <v>60.545348486364603</v>
       </c>
       <c r="E28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -7452,15 +7534,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="14"/>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>427</v>
+      <c r="J28" s="15" t="str">
+        <f>VLOOKUP(B28,NewRuud!B28:J110,9,FALSE)</f>
+        <v>NO0A2</v>
       </c>
       <c r="K28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -7468,7 +7551,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="13">
         <v>4.8385970033810022</v>
@@ -7477,7 +7560,7 @@
         <v>60.545348486364603</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -7486,13 +7569,14 @@
         <f>COUNTIF(B$2:B29,B29)</f>
         <v>2</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29">
+      <c r="H29" s="29"/>
+      <c r="I29" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>418</v>
+      <c r="J29" s="15">
+        <f>VLOOKUP(B29,NewRuud!B29:J111,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -7500,7 +7584,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="13">
         <v>3.037825494927695</v>
@@ -7509,7 +7593,7 @@
         <v>60.543328997897447</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F30">
         <v>48.064999999999998</v>
@@ -7519,12 +7603,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>421</v>
+      <c r="J30" s="15" t="str">
+        <f>VLOOKUP(B30,NewRuud!B30:J112,9,FALSE)</f>
+        <v>NO_BG</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -7532,7 +7617,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C31" s="13">
         <v>2.011387666028313</v>
@@ -7541,7 +7626,7 @@
         <v>60.502035307044537</v>
       </c>
       <c r="E31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="17">
@@ -7549,15 +7634,16 @@
         <v>1</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="21" t="s">
-        <v>478</v>
+      <c r="J31" s="15" t="str">
+        <f>VLOOKUP(B31,NewRuud!B31:J113,9,FALSE)</f>
+        <v>Platform - Note: Frigg  field - Norwegian block 25/1 i North Sea, on the boundary with UKD. Production closed 2004.</v>
       </c>
       <c r="K31" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7565,7 +7651,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="13">
         <v>2.8240461869792348</v>
@@ -7574,7 +7660,7 @@
         <v>60.486900453608072</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F32">
         <v>48.064999999999998</v>
@@ -7584,12 +7670,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="14"/>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>437</v>
+      <c r="J32" s="15" t="str">
+        <f>VLOOKUP(B32,NewRuud!B32:J114,9,FALSE)</f>
+        <v>NO_BO</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -7597,7 +7684,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="13">
         <v>2.0175154810000322</v>
@@ -7606,7 +7693,7 @@
         <v>59.894961973000079</v>
       </c>
       <c r="E33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F33">
         <v>48.064999999999998</v>
@@ -7616,12 +7703,13 @@
         <v>1</v>
       </c>
       <c r="H33" s="14"/>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <f t="shared" si="0"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>438</v>
+      <c r="J33" s="15" t="str">
+        <f>VLOOKUP(B33,NewRuud!B33:J115,9,FALSE)</f>
+        <v>NO_ML</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -7629,7 +7717,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="13">
         <v>2.2352254874930928</v>
@@ -7638,7 +7726,7 @@
         <v>59.571075351213203</v>
       </c>
       <c r="E34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F34">
         <v>1329.308</v>
@@ -7648,12 +7736,13 @@
         <v>1</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <f t="shared" ref="I34:I52" si="1">IF(G34=1,F34,0)</f>
         <v>1329.308</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>439</v>
+      <c r="J34" s="15" t="str">
+        <f>VLOOKUP(B34,NewRuud!B34:J116,9,FALSE)</f>
+        <v>NO_AE</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -7661,7 +7750,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="13">
         <v>2.2352254874930928</v>
@@ -7670,7 +7759,7 @@
         <v>59.571075351213203</v>
       </c>
       <c r="E35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F35">
         <v>1329.308</v>
@@ -7679,9 +7768,13 @@
         <f>COUNTIF(B$2:B35,B35)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="29">
+      <c r="H35" s="29"/>
+      <c r="I35" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <f>VLOOKUP(B35,NewRuud!B35:J117,9,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7690,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="13">
         <v>2.2345225779689399</v>
@@ -7699,7 +7792,7 @@
         <v>59.570737872744949</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F36">
         <v>1329.308</v>
@@ -7709,12 +7802,13 @@
         <v>1</v>
       </c>
       <c r="H36" s="14"/>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <f t="shared" si="1"/>
         <v>1329.308</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>439</v>
+      <c r="J36" s="15" t="str">
+        <f>VLOOKUP(B36,NewRuud!B36:J118,9,FALSE)</f>
+        <v>NO_AE</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -7722,7 +7816,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" s="13">
         <v>1.3911370790000319</v>
@@ -7731,7 +7825,7 @@
         <v>59.47797846900005</v>
       </c>
       <c r="E37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F37">
         <v>48.064999999999998</v>
@@ -7741,12 +7835,13 @@
         <v>1</v>
       </c>
       <c r="H37" s="14"/>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <f t="shared" si="1"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>439</v>
+      <c r="J37" s="15" t="str">
+        <f>VLOOKUP(B37,NewRuud!B37:J119,9,FALSE)</f>
+        <v>NO_AE</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -7754,7 +7849,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="13">
         <v>5.5129213334435638</v>
@@ -7763,7 +7858,7 @@
         <v>59.272115627836378</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="17">
@@ -7771,15 +7866,16 @@
         <v>1</v>
       </c>
       <c r="H38" s="14"/>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>428</v>
+      <c r="J38" s="15" t="str">
+        <f>VLOOKUP(B38,NewRuud!B38:J120,9,FALSE)</f>
+        <v>Coastal processing facility</v>
       </c>
       <c r="K38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -7787,7 +7883,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="13">
         <v>5.5129213334435638</v>
@@ -7796,20 +7892,21 @@
         <v>59.272115627836378</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="18">
         <f>COUNTIF(B$2:B39,B39)</f>
         <v>2</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="29">
+      <c r="H39" s="29"/>
+      <c r="I39" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>418</v>
+      <c r="J39" s="15">
+        <f>VLOOKUP(B39,NewRuud!B39:J121,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -7817,7 +7914,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="13">
         <v>5.0541760000000409</v>
@@ -7826,7 +7923,7 @@
         <v>59.326808000000028</v>
       </c>
       <c r="E40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F40">
         <v>8889.5949999999993</v>
@@ -7836,12 +7933,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <f t="shared" si="1"/>
         <v>8889.5949999999993</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>440</v>
+      <c r="J40" s="15" t="str">
+        <f>VLOOKUP(B40,NewRuud!B40:J122,9,FALSE)</f>
+        <v>NO_JS</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -7849,7 +7947,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="13">
         <v>2.487335300560932</v>
@@ -7858,7 +7956,7 @@
         <v>59.169726343631233</v>
       </c>
       <c r="E41" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F41">
         <v>48.064999999999998</v>
@@ -7868,15 +7966,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="14"/>
-      <c r="I41" s="29">
+      <c r="I41" s="28">
         <f t="shared" si="1"/>
         <v>48.064999999999998</v>
       </c>
-      <c r="J41" s="33" t="s">
-        <v>488</v>
+      <c r="J41" s="15" t="str">
+        <f>VLOOKUP(B41,NewRuud!B41:J123,9,FALSE)</f>
+        <v>NO_AE</v>
       </c>
       <c r="K41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -7884,7 +7983,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="13">
         <v>1.750470074427396</v>
@@ -7893,7 +7992,7 @@
         <v>58.84241056287069</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F42">
         <v>667.00199999999995</v>
@@ -7903,12 +8002,13 @@
         <v>1</v>
       </c>
       <c r="H42" s="14"/>
-      <c r="I42" s="29">
+      <c r="I42" s="28">
         <f t="shared" si="1"/>
         <v>667.00199999999995</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>441</v>
+      <c r="J42" s="15" t="str">
+        <f>VLOOKUP(B42,NewRuud!B42:J124,9,FALSE)</f>
+        <v>NO_GS</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -7916,7 +8016,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C43" s="13">
         <v>2.5577715130093028</v>
@@ -7925,7 +8025,7 @@
         <v>58.841931072335058</v>
       </c>
       <c r="E43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F43">
         <v>8889.5949999999993</v>
@@ -7935,15 +8035,16 @@
         <v>1</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="29">
+      <c r="I43" s="28">
         <f t="shared" si="1"/>
         <v>8889.5949999999993</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>440</v>
+      <c r="J43" s="15" t="str">
+        <f>VLOOKUP(B43,NewRuud!B43:J125,9,FALSE)</f>
+        <v>NO_JS</v>
       </c>
       <c r="K43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -7951,7 +8052,7 @@
         <v>65</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C44" s="13">
         <v>2.254149831737414</v>
@@ -7960,7 +8061,7 @@
         <v>58.839405675350093</v>
       </c>
       <c r="E44" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="17">
@@ -7968,12 +8069,13 @@
         <v>1</v>
       </c>
       <c r="H44" s="14"/>
-      <c r="I44" s="29">
+      <c r="I44" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>441</v>
+      <c r="J44" s="15">
+        <f>VLOOKUP(B44,NewRuud!B44:J126,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -7981,16 +8083,16 @@
         <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="27">
+        <v>292</v>
+      </c>
+      <c r="C45" s="26">
         <v>1.898765933579508</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="26">
         <v>58.370533807717997</v>
       </c>
       <c r="E45" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F45">
         <v>291.70999999999998</v>
@@ -8000,15 +8102,16 @@
         <v>1</v>
       </c>
       <c r="H45" s="14"/>
-      <c r="I45" s="29">
+      <c r="I45" s="28">
         <f t="shared" si="1"/>
         <v>291.70999999999998</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>458</v>
+      <c r="J45" s="15" t="str">
+        <f>VLOOKUP(B45,NewRuud!B45:J127,9,FALSE)</f>
+        <v>NO_SA</v>
       </c>
       <c r="K45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -8016,16 +8119,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="27">
+        <v>99</v>
+      </c>
+      <c r="C46" s="26">
         <v>1.915866396996226</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <v>58.364944173837479</v>
       </c>
       <c r="E46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F46">
         <v>1.974</v>
@@ -8035,15 +8138,16 @@
         <v>1</v>
       </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="29">
+      <c r="I46" s="28">
         <f t="shared" si="1"/>
         <v>1.974</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>459</v>
+      <c r="J46" s="15" t="str">
+        <f>VLOOKUP(B46,NewRuud!B46:J128,9,FALSE)</f>
+        <v>NO_SR</v>
       </c>
       <c r="K46" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -8051,7 +8155,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="13">
         <v>1.915866396996226</v>
@@ -8060,7 +8164,7 @@
         <v>58.364944173837479</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F47">
         <v>1.974</v>
@@ -8069,13 +8173,17 @@
         <f>COUNTIF(B$2:B47,B47)</f>
         <v>2</v>
       </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29">
+      <c r="H47" s="29"/>
+      <c r="I47" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K47" s="28" t="s">
-        <v>469</v>
+      <c r="J47" s="15" t="str">
+        <f>VLOOKUP(B47,NewRuud!B47:J129,9,FALSE)</f>
+        <v>NO_SR</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -8083,7 +8191,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="13">
         <v>2.4644041660536331</v>
@@ -8092,7 +8200,7 @@
         <v>58.188149017412513</v>
       </c>
       <c r="E48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -8102,17 +8210,18 @@
         <v>1</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="I48" s="29">
+        <v>472</v>
+      </c>
+      <c r="I48" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>442</v>
+      <c r="J48" s="15" t="str">
+        <f>VLOOKUP(B48,NewRuud!B48:J130,9,FALSE)</f>
+        <v>NO_DE</v>
       </c>
       <c r="K48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -8120,16 +8229,16 @@
         <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="27">
+        <v>161</v>
+      </c>
+      <c r="C49" s="26">
         <v>2.4644041660536331</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>58.188149017412513</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -8138,10 +8247,14 @@
         <f>COUNTIF(B$2:B49,B49)</f>
         <v>2</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="29">
+      <c r="H49" s="29"/>
+      <c r="I49" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J49" s="15" t="str">
+        <f>VLOOKUP(B49,NewRuud!B49:J131,9,FALSE)</f>
+        <v>NO_DE</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -8149,16 +8262,16 @@
         <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="27">
+        <v>105</v>
+      </c>
+      <c r="C50" s="26">
         <v>2.4737329746028802</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>58.184409229014761</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -8168,17 +8281,18 @@
         <v>1</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="I50" s="29">
+        <v>472</v>
+      </c>
+      <c r="I50" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>443</v>
+      <c r="J50" s="15" t="str">
+        <f>VLOOKUP(B50,NewRuud!B50:J132,9,FALSE)</f>
+        <v>NO_DS</v>
       </c>
       <c r="K50" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -8186,7 +8300,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="13">
         <v>2.4737329746028802</v>
@@ -8195,7 +8309,7 @@
         <v>58.184409229014761</v>
       </c>
       <c r="E51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -8204,10 +8318,14 @@
         <f>COUNTIF(B$2:B51,B51)</f>
         <v>2</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="29">
+      <c r="H51" s="29"/>
+      <c r="I51" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J51" s="15" t="str">
+        <f>VLOOKUP(B51,NewRuud!B51:J133,9,FALSE)</f>
+        <v>NO_DS</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -8215,7 +8333,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="13">
         <v>1.803328</v>
@@ -8224,7 +8342,7 @@
         <v>57.758068999999999</v>
       </c>
       <c r="E52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F52">
         <v>1282.3420000000001</v>
@@ -8234,14 +8352,15 @@
         <v>1</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="I52" s="29">
+        <v>472</v>
+      </c>
+      <c r="I52" s="28">
         <f t="shared" si="1"/>
         <v>1282.3420000000001</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>444</v>
+      <c r="J52" s="15" t="str">
+        <f>VLOOKUP(B52,NewRuud!B52:J134,9,FALSE)</f>
+        <v>NO_CP</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -8249,7 +8368,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="13">
         <v>-1.8256509999999999</v>
@@ -8258,7 +8377,7 @@
         <v>57.579971</v>
       </c>
       <c r="E53" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="17">
@@ -8266,11 +8385,12 @@
         <v>1</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="15" t="s">
-        <v>420</v>
+        <v>471</v>
+      </c>
+      <c r="I53" s="32"/>
+      <c r="J53" s="15">
+        <f>VLOOKUP(B53,NewRuud!B53:J135,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -8278,7 +8398,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="13">
         <v>-1.8256509999999999</v>
@@ -8287,16 +8407,20 @@
         <v>57.579971</v>
       </c>
       <c r="E54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="18">
         <f>COUNTIF(B$2:B54,B54)</f>
         <v>2</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="29">
+      <c r="H54" s="29"/>
+      <c r="I54" s="28">
         <f t="shared" ref="I54:I68" si="2">IF(G54=1,F54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
+        <f>VLOOKUP(B54,NewRuud!B54:J136,9,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8305,7 +8429,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="13">
         <v>3.330503000000022</v>
@@ -8314,7 +8438,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F55">
         <v>578.78499999999997</v>
@@ -8324,12 +8448,13 @@
         <v>1</v>
       </c>
       <c r="H55" s="14"/>
-      <c r="I55" s="29">
+      <c r="I55" s="28">
         <f t="shared" si="2"/>
         <v>578.78499999999997</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>445</v>
+      <c r="J55" s="15" t="str">
+        <f>VLOOKUP(B55,NewRuud!B55:J137,9,FALSE)</f>
+        <v>NO_EV</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -8337,7 +8462,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="13">
         <v>3.330503000000022</v>
@@ -8346,7 +8471,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E56" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F56">
         <v>933.85500000000002</v>
@@ -8356,12 +8481,13 @@
         <v>1</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="29">
+      <c r="I56" s="28">
         <f t="shared" si="2"/>
         <v>933.85500000000002</v>
       </c>
-      <c r="J56" s="15" t="s">
-        <v>445</v>
+      <c r="J56" s="15" t="str">
+        <f>VLOOKUP(B56,NewRuud!B56:J138,9,FALSE)</f>
+        <v>NO_EV</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -8369,7 +8495,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="13">
         <v>3.330503000000022</v>
@@ -8378,7 +8504,7 @@
         <v>56.490369000000037</v>
       </c>
       <c r="E57" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F57">
         <v>933.85500000000002</v>
@@ -8387,10 +8513,14 @@
         <f>COUNTIF(B$2:B57,B57)</f>
         <v>2</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="29">
+      <c r="H57" s="29"/>
+      <c r="I57" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="J57" s="15" t="str">
+        <f>VLOOKUP(B57,NewRuud!B57:J139,9,FALSE)</f>
+        <v>NO_EV</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -8398,7 +8528,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C58" s="13">
         <v>6.5038</v>
@@ -8407,7 +8537,7 @@
         <v>55.71</v>
       </c>
       <c r="E58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -8417,12 +8547,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="29">
+      <c r="I58" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J58" s="15" t="s">
-        <v>431</v>
+      <c r="J58" s="15" t="str">
+        <f>VLOOKUP(B58,NewRuud!B58:J140,9,FALSE)</f>
+        <v>DK_WW</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -8430,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="13">
         <v>4.5569471181611378</v>
@@ -8439,7 +8570,7 @@
         <v>55.458982371638299</v>
       </c>
       <c r="E59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="17">
@@ -8447,12 +8578,13 @@
         <v>1</v>
       </c>
       <c r="H59" s="14"/>
-      <c r="I59" s="29">
+      <c r="I59" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J59" s="15" t="s">
-        <v>450</v>
+      <c r="J59" s="15">
+        <f>VLOOKUP(B59,NewRuud!B59:J141,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -8460,7 +8592,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="13">
         <v>4.5569471181611378</v>
@@ -8469,20 +8601,21 @@
         <v>55.458982371638299</v>
       </c>
       <c r="E60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="18">
         <f>COUNTIF(B$2:B60,B60)</f>
         <v>2</v>
       </c>
-      <c r="H60" s="30"/>
-      <c r="I60" s="29">
+      <c r="H60" s="29"/>
+      <c r="I60" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J60" s="15" t="s">
-        <v>418</v>
+      <c r="J60" s="15">
+        <f>VLOOKUP(B60,NewRuud!B60:J142,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -8490,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="13">
         <v>3.2998160000000212</v>
@@ -8499,7 +8632,7 @@
         <v>54.789494000000047</v>
       </c>
       <c r="E61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="17">
@@ -8507,17 +8640,18 @@
         <v>1</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="I61" s="29">
+        <v>476</v>
+      </c>
+      <c r="I61" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J61" s="15" t="s">
-        <v>486</v>
+      <c r="J61" s="15" t="str">
+        <f>VLOOKUP(B61,NewRuud!B61:J143,9,FALSE)</f>
+        <v>Connection point</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -8525,7 +8659,7 @@
         <v>44</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="13">
         <v>3.2998160000000212</v>
@@ -8534,20 +8668,21 @@
         <v>54.789494000000047</v>
       </c>
       <c r="E62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="18">
         <f>COUNTIF(B$2:B62,B62)</f>
         <v>2</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="29">
+      <c r="H62" s="29"/>
+      <c r="I62" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J62" s="15" t="s">
-        <v>418</v>
+      <c r="J62" s="15" t="str">
+        <f>VLOOKUP(B62,NewRuud!B62:J144,9,FALSE)</f>
+        <v>Connection point</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -8555,7 +8690,7 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C63" s="13">
         <v>-1.104584</v>
@@ -8564,7 +8699,7 @@
         <v>54.624600000000001</v>
       </c>
       <c r="E63" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F63">
         <v>222.233</v>
@@ -8574,12 +8709,13 @@
         <v>1</v>
       </c>
       <c r="H63" s="14"/>
-      <c r="I63" s="29">
+      <c r="I63" s="28">
         <f t="shared" si="2"/>
         <v>222.233</v>
       </c>
-      <c r="J63" s="15" t="s">
-        <v>463</v>
+      <c r="J63" s="15" t="str">
+        <f>VLOOKUP(B63,NewRuud!B63:J145,9,FALSE)</f>
+        <v>UKE22</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -8587,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" s="13">
         <v>6.0406335538870612</v>
@@ -8596,7 +8732,7 @@
         <v>54.505801334185612</v>
       </c>
       <c r="E64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="17">
@@ -8604,15 +8740,16 @@
         <v>1</v>
       </c>
       <c r="H64" s="14"/>
-      <c r="I64" s="29">
+      <c r="I64" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J64" s="15" t="s">
-        <v>466</v>
+      <c r="J64" s="15" t="str">
+        <f>VLOOKUP(B64,NewRuud!B64:J146,9,FALSE)</f>
+        <v>Norpipe H-7</v>
       </c>
       <c r="K64" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -8620,7 +8757,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="13">
         <v>6.0406335538870612</v>
@@ -8629,20 +8766,21 @@
         <v>54.505801334185612</v>
       </c>
       <c r="E65" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="18">
         <f>COUNTIF(B$2:B65,B65)</f>
         <v>2</v>
       </c>
-      <c r="H65" s="30"/>
-      <c r="I65" s="29">
+      <c r="H65" s="29"/>
+      <c r="I65" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J65" s="15" t="s">
-        <v>418</v>
+      <c r="J65" s="15" t="str">
+        <f>VLOOKUP(B65,NewRuud!B65:J147,9,FALSE)</f>
+        <v>Norpipe H-7</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -8650,7 +8788,7 @@
         <v>34</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C66" s="13">
         <v>15.2599</v>
@@ -8659,7 +8797,7 @@
         <v>53.8</v>
       </c>
       <c r="E66" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F66">
         <v>1041.0509999999999</v>
@@ -8669,15 +8807,16 @@
         <v>1</v>
       </c>
       <c r="H66" s="14"/>
-      <c r="I66" s="29">
+      <c r="I66" s="28">
         <f t="shared" si="2"/>
         <v>1041.0509999999999</v>
       </c>
-      <c r="J66" s="15" t="s">
-        <v>503</v>
+      <c r="J66" s="15" t="str">
+        <f>VLOOKUP(B66,NewRuud!B66:J148,9,FALSE)</f>
+        <v>PL428</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -8685,16 +8824,16 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="35">
+        <v>195</v>
+      </c>
+      <c r="C67" s="33">
         <v>4.2226220000000581</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="33">
         <v>55.706969000000072</v>
       </c>
       <c r="E67" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -8704,17 +8843,18 @@
         <v>1</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="I67" s="29">
+        <v>476</v>
+      </c>
+      <c r="I67" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J67" s="15" t="s">
-        <v>487</v>
+      <c r="J67" s="15" t="str">
+        <f>VLOOKUP(B67,NewRuud!B67:J149,9,FALSE)</f>
+        <v>DE_EP</v>
       </c>
       <c r="K67" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -8722,16 +8862,16 @@
         <v>55</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="35">
+        <v>195</v>
+      </c>
+      <c r="C68" s="33">
         <v>4.2226220000000581</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="33">
         <v>55.706969000000072</v>
       </c>
       <c r="E68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -8740,13 +8880,14 @@
         <f>COUNTIF(B$2:B68,B68)</f>
         <v>2</v>
       </c>
-      <c r="H68" s="30"/>
-      <c r="I68" s="29">
+      <c r="H68" s="29"/>
+      <c r="I68" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J68" s="15" t="s">
-        <v>418</v>
+      <c r="J68" s="15" t="str">
+        <f>VLOOKUP(B68,NewRuud!B68:J150,9,FALSE)</f>
+        <v>DE_EP</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -8754,7 +8895,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C69" s="13">
         <v>0.1160310000000209</v>
@@ -8763,7 +8904,7 @@
         <v>53.659231000000027</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -8773,11 +8914,12 @@
         <v>1</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="15" t="s">
-        <v>419</v>
+        <v>471</v>
+      </c>
+      <c r="I69" s="32"/>
+      <c r="J69" s="15" t="str">
+        <f>VLOOKUP(B69,NewRuud!B69:J151,9,FALSE)</f>
+        <v>UKE12</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -8785,16 +8927,16 @@
         <v>46</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="24">
+        <v>111</v>
+      </c>
+      <c r="C70" s="23">
         <v>7.3264200000000406</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>53.679700000000082</v>
       </c>
       <c r="E70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="17">
@@ -8802,11 +8944,12 @@
         <v>1</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="I70" s="34"/>
-      <c r="J70" s="15" t="s">
-        <v>448</v>
+        <v>471</v>
+      </c>
+      <c r="I70" s="32"/>
+      <c r="J70" s="15">
+        <f>VLOOKUP(B70,NewRuud!B70:J152,9,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -8814,7 +8957,7 @@
         <v>38</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="13">
         <v>3.229797000000076</v>
@@ -8823,7 +8966,7 @@
         <v>51.350508000000048</v>
       </c>
       <c r="E71" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F71">
         <v>48.064999999999998</v>
@@ -8833,14 +8976,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="I71" s="29">
+        <v>471</v>
+      </c>
+      <c r="I71" s="28">
         <f>IF(G71=1,F71,0)</f>
         <v>48.064999999999998</v>
       </c>
-      <c r="J71" s="15" t="s">
-        <v>447</v>
+      <c r="J71" s="15" t="str">
+        <f>VLOOKUP(B71,NewRuud!B71:J153,9,FALSE)</f>
+        <v>BE251</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -8848,7 +8992,7 @@
         <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="13">
         <v>2.252709000000038</v>
@@ -8857,7 +9001,7 @@
         <v>51.046406000000047</v>
       </c>
       <c r="E72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F72">
         <v>1214.5999999999999</v>
@@ -8867,22 +9011,23 @@
         <v>1</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="I72" s="29">
+        <v>471</v>
+      </c>
+      <c r="I72" s="28">
         <f>IF(G72=1,F72,0)</f>
         <v>1214.5999999999999</v>
       </c>
-      <c r="J72" s="15" t="s">
-        <v>446</v>
+      <c r="J72" s="15" t="str">
+        <f>VLOOKUP(B72,NewRuud!B72:J154,9,FALSE)</f>
+        <v>FRE12</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C73" s="11">
         <v>8.4072999999999993</v>
@@ -8890,19 +9035,20 @@
       <c r="D73" s="11">
         <v>55.744999999999997</v>
       </c>
-      <c r="J73" s="15" t="s">
-        <v>494</v>
+      <c r="J73" s="15" t="str">
+        <f>VLOOKUP(B73,NewRuud!B73:J155,9,FALSE)</f>
+        <v>DK_1?</v>
       </c>
       <c r="K73" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C74" s="11">
         <v>9.3108000000000004</v>
@@ -8910,19 +9056,20 @@
       <c r="D74" s="11">
         <v>55.616999999999997</v>
       </c>
-      <c r="J74" s="15" t="s">
-        <v>495</v>
+      <c r="J74" s="15" t="str">
+        <f>VLOOKUP(B74,NewRuud!B74:J156,9,FALSE)</f>
+        <v>DK_2?</v>
       </c>
       <c r="K74" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C75" s="11">
         <v>10.7951</v>
@@ -8930,19 +9077,20 @@
       <c r="D75" s="11">
         <v>55.286999999999999</v>
       </c>
-      <c r="J75" s="15" t="s">
-        <v>501</v>
+      <c r="J75" s="15" t="str">
+        <f>VLOOKUP(B75,NewRuud!B75:J157,9,FALSE)</f>
+        <v>DK_3?</v>
       </c>
       <c r="K75" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C76" s="11">
         <v>11.2102</v>
@@ -8950,16 +9098,17 @@
       <c r="D76" s="11">
         <v>55.389000000000003</v>
       </c>
-      <c r="J76" s="15" t="s">
-        <v>502</v>
+      <c r="J76" s="15" t="str">
+        <f>VLOOKUP(B76,NewRuud!B76:J158,9,FALSE)</f>
+        <v>DK_4?</v>
       </c>
       <c r="K76" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C77" s="10">
         <v>7.1892900000000282</v>
@@ -8967,8 +9116,12 @@
       <c r="D77" s="10">
         <v>53.346200000000067</v>
       </c>
+      <c r="J77" s="15" t="e">
+        <f>VLOOKUP(B77,NewRuud!B77:J159,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="K77" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -8979,7 +9132,7 @@
     <sortCondition ref="B2:B72"/>
     <sortCondition ref="G2:G72"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K47" r:id="rId1" xr:uid="{6D54644E-0174-F04B-9CCC-128FA44630F4}"/>
   </hyperlinks>
@@ -8999,30 +9152,2334 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>507</v>
+      <c r="A5" s="34" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DB811-30A1-6F47-9A1D-2335AD14FBAA}">
+  <dimension ref="A1:L84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2">
+        <v>21.23</v>
+      </c>
+      <c r="D2">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="E2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2">
+        <v>119.05</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I2">
+        <v>119.1</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3">
+        <v>23.59</v>
+      </c>
+      <c r="D3">
+        <v>70.69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3">
+        <v>8889.5949999999993</v>
+      </c>
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8889.6</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4">
+        <v>7.11</v>
+      </c>
+      <c r="D4">
+        <v>67.06</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4">
+        <v>8889.5949999999993</v>
+      </c>
+      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>8889.6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>8.08</v>
+      </c>
+      <c r="D5">
+        <v>66.03</v>
+      </c>
+      <c r="E5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5">
+        <v>1041.0509999999999</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I5">
+        <v>1041.0999999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6">
+        <v>7.66</v>
+      </c>
+      <c r="D6">
+        <v>65.69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>470</v>
+      </c>
+      <c r="I6">
+        <v>48.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>7.32</v>
+      </c>
+      <c r="D7">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8">
+        <v>6.8</v>
+      </c>
+      <c r="D8">
+        <v>65.09</v>
+      </c>
+      <c r="E8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>6.8</v>
+      </c>
+      <c r="D9">
+        <v>65.08</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10">
+        <v>7.79</v>
+      </c>
+      <c r="D10">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>48.1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>6.44</v>
+      </c>
+      <c r="D11">
+        <v>64.23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G11" s="34">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>48.1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12">
+        <v>5.39</v>
+      </c>
+      <c r="D12">
+        <v>63.53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G12" s="34">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>48.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13">
+        <v>5.39</v>
+      </c>
+      <c r="D13">
+        <v>63.53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>8.66</v>
+      </c>
+      <c r="D14">
+        <v>63.4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>422</v>
+      </c>
+      <c r="K14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15">
+        <v>6.95</v>
+      </c>
+      <c r="D15">
+        <v>62.85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15">
+        <v>3093.8470000000002</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3093.8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>423</v>
+      </c>
+      <c r="K15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>6.95</v>
+      </c>
+      <c r="D16">
+        <v>62.85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16">
+        <v>3093.8470000000002</v>
+      </c>
+      <c r="G16" s="34">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D17">
+        <v>62.3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F17" s="34">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>470</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18">
+        <v>3.9</v>
+      </c>
+      <c r="D18">
+        <v>61.33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18">
+        <v>2588.0810000000001</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2588.1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>1.83</v>
+      </c>
+      <c r="D19">
+        <v>61.2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1.85</v>
+      </c>
+      <c r="D20">
+        <v>61.19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>1.85</v>
+      </c>
+      <c r="D21">
+        <v>61.19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="34">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D22">
+        <v>61.08</v>
+      </c>
+      <c r="E22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22">
+        <v>508.40300000000002</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>508.4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23">
+        <v>1.71</v>
+      </c>
+      <c r="D23">
+        <v>61.03</v>
+      </c>
+      <c r="E23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23">
+        <v>68.573999999999998</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J23" t="s">
+        <v>451</v>
+      </c>
+      <c r="K23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24">
+        <v>1.7</v>
+      </c>
+      <c r="D24">
+        <v>61.02</v>
+      </c>
+      <c r="E24" t="s">
+        <v>402</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>450</v>
+      </c>
+      <c r="J24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>61.02</v>
+      </c>
+      <c r="E25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25">
+        <v>2588.0810000000001</v>
+      </c>
+      <c r="G25" s="34">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2588.1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26">
+        <v>2.9</v>
+      </c>
+      <c r="D26">
+        <v>60.56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="34">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>4.84</v>
+      </c>
+      <c r="D27">
+        <v>60.55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27">
+        <v>2628.125</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2628.1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>4.84</v>
+      </c>
+      <c r="D28">
+        <v>60.55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="34">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>424</v>
+      </c>
+      <c r="K28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>4.84</v>
+      </c>
+      <c r="D29">
+        <v>60.55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30">
+        <v>3.04</v>
+      </c>
+      <c r="D30">
+        <v>60.54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G30" s="34">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>48.1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D31">
+        <v>60.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" s="34">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>475</v>
+      </c>
+      <c r="J31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>2.82</v>
+      </c>
+      <c r="D32">
+        <v>60.49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G32" s="34">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>48.1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="34">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33">
+        <v>2.02</v>
+      </c>
+      <c r="D33">
+        <v>59.89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G33" s="34">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>48.1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D34">
+        <v>59.57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>369</v>
+      </c>
+      <c r="F34">
+        <v>1329.308</v>
+      </c>
+      <c r="G34" s="34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1329.3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="34">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D35">
+        <v>59.57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F35">
+        <v>1329.308</v>
+      </c>
+      <c r="G35" s="34">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36">
+        <v>2.23</v>
+      </c>
+      <c r="D36">
+        <v>59.57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36">
+        <v>1329.308</v>
+      </c>
+      <c r="G36" s="34">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1329.3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37">
+        <v>1.39</v>
+      </c>
+      <c r="D37">
+        <v>59.48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>387</v>
+      </c>
+      <c r="F37">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G37" s="34">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>48.1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>5.19</v>
+      </c>
+      <c r="D38">
+        <v>59.33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>425</v>
+      </c>
+      <c r="J38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>5.19</v>
+      </c>
+      <c r="D39">
+        <v>59.33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F39" s="34">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40">
+        <v>5.05</v>
+      </c>
+      <c r="D40">
+        <v>59.33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>389</v>
+      </c>
+      <c r="F40">
+        <v>8889.5949999999993</v>
+      </c>
+      <c r="G40" s="34">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>8889.6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="34">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D41">
+        <v>59.17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>397</v>
+      </c>
+      <c r="F41">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G41" s="34">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>48.1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>436</v>
+      </c>
+      <c r="K41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="34">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42">
+        <v>1.75</v>
+      </c>
+      <c r="D42">
+        <v>58.84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42">
+        <v>667.00199999999995</v>
+      </c>
+      <c r="G42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>667</v>
+      </c>
+      <c r="J42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="34">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43">
+        <v>2.56</v>
+      </c>
+      <c r="D43">
+        <v>58.84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>408</v>
+      </c>
+      <c r="F43">
+        <v>8889.5949999999993</v>
+      </c>
+      <c r="G43" s="34">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>8889.6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>437</v>
+      </c>
+      <c r="K43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44">
+        <v>2.25</v>
+      </c>
+      <c r="D44">
+        <v>58.84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <v>63</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="40">
+        <v>1.9</v>
+      </c>
+      <c r="D45" s="40">
+        <v>58.37</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="F45" s="40">
+        <v>291.70999999999998</v>
+      </c>
+      <c r="G45" s="39">
+        <v>1</v>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40">
+        <v>291.7</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="K45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="34">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>1.92</v>
+      </c>
+      <c r="D52">
+        <v>58.36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>365</v>
+      </c>
+      <c r="F52">
+        <v>1.974</v>
+      </c>
+      <c r="G52" s="34">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>456</v>
+      </c>
+      <c r="K52" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="34">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>1.92</v>
+      </c>
+      <c r="D53">
+        <v>58.36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>365</v>
+      </c>
+      <c r="F53">
+        <v>1.974</v>
+      </c>
+      <c r="G53" s="34">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="34">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54">
+        <v>2.46</v>
+      </c>
+      <c r="D54">
+        <v>58.19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>472</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>439</v>
+      </c>
+      <c r="K54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55">
+        <v>2.46</v>
+      </c>
+      <c r="D55">
+        <v>58.19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>375</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="34">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D56">
+        <v>58.18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>376</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="34">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D57">
+        <v>58.18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="34">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58">
+        <v>1.8</v>
+      </c>
+      <c r="D58">
+        <v>57.76</v>
+      </c>
+      <c r="E58" t="s">
+        <v>411</v>
+      </c>
+      <c r="F58">
+        <v>1282.3420000000001</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>472</v>
+      </c>
+      <c r="I58">
+        <v>1282.3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="34">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59">
+        <v>-1.83</v>
+      </c>
+      <c r="D59">
+        <v>57.58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F59" s="34">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>471</v>
+      </c>
+      <c r="I59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="34">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60">
+        <v>-1.83</v>
+      </c>
+      <c r="D60">
+        <v>57.58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>391</v>
+      </c>
+      <c r="F60" s="34">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="34">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61">
+        <v>3.33</v>
+      </c>
+      <c r="D61">
+        <v>56.49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61">
+        <v>578.78499999999997</v>
+      </c>
+      <c r="G61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>578.79999999999995</v>
+      </c>
+      <c r="J61" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="34">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>3.33</v>
+      </c>
+      <c r="D62">
+        <v>56.49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62">
+        <v>933.85500000000002</v>
+      </c>
+      <c r="G62" s="34">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>933.9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="34">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>3.33</v>
+      </c>
+      <c r="D63">
+        <v>56.49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>363</v>
+      </c>
+      <c r="F63">
+        <v>933.85500000000002</v>
+      </c>
+      <c r="G63" s="34">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="34">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64">
+        <v>6.5</v>
+      </c>
+      <c r="D64">
+        <v>55.71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>409</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="34">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="34">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D65">
+        <v>55.46</v>
+      </c>
+      <c r="E65" t="s">
+        <v>372</v>
+      </c>
+      <c r="F65" s="34">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="34">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D66">
+        <v>55.46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>372</v>
+      </c>
+      <c r="F66" s="34">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="34">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67">
+        <v>3.3</v>
+      </c>
+      <c r="D67">
+        <v>54.79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>358</v>
+      </c>
+      <c r="F67" s="34">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>476</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>483</v>
+      </c>
+      <c r="J67" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="34">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68">
+        <v>3.3</v>
+      </c>
+      <c r="D68">
+        <v>54.79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" s="34">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="34">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D69">
+        <v>54.62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>392</v>
+      </c>
+      <c r="F69">
+        <v>222.233</v>
+      </c>
+      <c r="G69" s="34">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>222.2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="39">
+        <v>9</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="40">
+        <v>6.04</v>
+      </c>
+      <c r="D70" s="40">
+        <v>54.51</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="39">
+        <v>1</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40">
+        <v>0</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="34">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73">
+        <v>6.04</v>
+      </c>
+      <c r="D73">
+        <v>54.51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>366</v>
+      </c>
+      <c r="F73" s="34">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="34">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74">
+        <v>15.26</v>
+      </c>
+      <c r="D74">
+        <v>53.8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74">
+        <v>1041.0509999999999</v>
+      </c>
+      <c r="G74" s="34">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1041.0999999999999</v>
+      </c>
+      <c r="J74" t="s">
+        <v>522</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="34">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75">
+        <v>7.33</v>
+      </c>
+      <c r="D75">
+        <v>53.68</v>
+      </c>
+      <c r="E75" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="34">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>476</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>484</v>
+      </c>
+      <c r="K75" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="34">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76">
+        <v>7.33</v>
+      </c>
+      <c r="D76">
+        <v>53.68</v>
+      </c>
+      <c r="E76" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="34">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="34">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77">
+        <v>0.12</v>
+      </c>
+      <c r="D77">
+        <v>53.66</v>
+      </c>
+      <c r="E77" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="34">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>471</v>
+      </c>
+      <c r="J77" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="34">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>7.19</v>
+      </c>
+      <c r="D78">
+        <v>53.35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>395</v>
+      </c>
+      <c r="F78" s="34">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>471</v>
+      </c>
+      <c r="I78" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="34">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79">
+        <v>3.23</v>
+      </c>
+      <c r="D79">
+        <v>51.35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>393</v>
+      </c>
+      <c r="F79">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="G79" s="34">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>471</v>
+      </c>
+      <c r="I79">
+        <v>48.1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="34">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80">
+        <v>2.25</v>
+      </c>
+      <c r="D80">
+        <v>51.05</v>
+      </c>
+      <c r="E80" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="G80" s="34">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>471</v>
+      </c>
+      <c r="I80">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="J80" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" t="s">
+        <v>486</v>
+      </c>
+      <c r="J81" t="s">
+        <v>490</v>
+      </c>
+      <c r="K81" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" t="s">
+        <v>487</v>
+      </c>
+      <c r="J82" t="s">
+        <v>491</v>
+      </c>
+      <c r="K82" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83" t="s">
+        <v>493</v>
+      </c>
+      <c r="J83" t="s">
+        <v>497</v>
+      </c>
+      <c r="K83" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="B84" t="s">
+        <v>494</v>
+      </c>
+      <c r="J84" t="s">
+        <v>498</v>
+      </c>
+      <c r="K84" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="G45:G51"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="I45:I51"/>
+    <mergeCell ref="J45:J51"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K53" r:id="rId1" xr:uid="{0A959D5E-D55D-7A4D-B85B-0C88487F58F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>